--- a/models/calculation engines/AA price forecast/Outputs/league_master_output.xlsx
+++ b/models/calculation engines/AA price forecast/Outputs/league_master_output.xlsx
@@ -567,29 +567,25 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>1148.865546150606</v>
-      </c>
-      <c r="L2" t="n">
-        <v>267.9824272302194</v>
-      </c>
-      <c r="M2" t="n">
-        <v>422.6330811649625</v>
-      </c>
+        <v>1148.818431958528</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>2135.918793731426</v>
+        <v>2562.524995834251</v>
       </c>
       <c r="O2" t="n">
         <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>305.1312562473466</v>
+        <v>366.074999404893</v>
       </c>
       <c r="Q2" t="n">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="R2" t="n">
         <v>4</v>
@@ -633,29 +629,25 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1148.865546150606</v>
-      </c>
-      <c r="L3" t="n">
-        <v>267.9824272302194</v>
-      </c>
-      <c r="M3" t="n">
-        <v>422.6330811649625</v>
-      </c>
+        <v>1148.818431958528</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>2138.427334802657</v>
+        <v>2565.033536905482</v>
       </c>
       <c r="O3" t="n">
         <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>305.4896192575224</v>
+        <v>366.4333624150689</v>
       </c>
       <c r="Q3" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="R3" t="n">
         <v>4</v>
@@ -699,7 +691,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -765,29 +757,25 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>1125.557939026574</v>
-      </c>
-      <c r="L5" t="n">
-        <v>276.3255912162163</v>
-      </c>
-      <c r="M5" t="n">
-        <v>434.4909524205393</v>
-      </c>
+        <v>1125.510824834496</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>2143.764596077142</v>
+        <v>2531.360410779378</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>306.2520851538774</v>
+        <v>361.6229158256255</v>
       </c>
       <c r="Q5" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="R5" t="n">
         <v>4</v>
@@ -831,7 +819,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>SPIC</t>
+          <t>Owner_5</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -897,32 +885,28 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Chalco</t>
+          <t>Owner_6</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1094.772806067527</v>
-      </c>
-      <c r="L7" t="n">
-        <v>283.0001224050138</v>
-      </c>
-      <c r="M7" t="n">
-        <v>492.1818106243246</v>
-      </c>
+        <v>1094.72569187545</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>2150.350255380025</v>
+        <v>2478.765573595952</v>
       </c>
       <c r="O7" t="n">
         <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>307.1928936257179</v>
+        <v>354.1093676565646</v>
       </c>
       <c r="Q7" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -961,7 +945,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Jinjiang</t>
+          <t>Owner_7</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -1025,32 +1009,28 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Chalco</t>
+          <t>Owner_6</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1202.427965252477</v>
-      </c>
-      <c r="L9" t="n">
-        <v>309.6982471602037</v>
-      </c>
-      <c r="M9" t="n">
-        <v>476.6305040596337</v>
-      </c>
+        <v>1098.437938743897</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>2272.462379015474</v>
+        <v>3519.318753485151</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>324.6374827164963</v>
+        <v>502.7598219264502</v>
       </c>
       <c r="Q9" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="R9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1089,29 +1069,25 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Jinjiang</t>
+          <t>Owner_7</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>1107.765670107091</v>
-      </c>
-      <c r="L10" t="n">
-        <v>210.4234259167663</v>
-      </c>
-      <c r="M10" t="n">
-        <v>496.0696372654973</v>
-      </c>
+        <v>1202.3808510604</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>2109.917880466027</v>
+        <v>3649.724519384774</v>
       </c>
       <c r="O10" t="n">
         <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>301.4168400665753</v>
+        <v>521.3892170549677</v>
       </c>
       <c r="Q10" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="R10" t="n">
         <v>4</v>
@@ -1153,32 +1129,28 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Xinfa</t>
+          <t>Owner_8</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>1213.564705857817</v>
-      </c>
-      <c r="L11" t="n">
-        <v>309.6982471602037</v>
-      </c>
-      <c r="M11" t="n">
-        <v>476.6305040596337</v>
-      </c>
+        <v>1107.718555915013</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>2273.016810505797</v>
+        <v>3539.905597907908</v>
       </c>
       <c r="O11" t="n">
         <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>324.7166872151139</v>
+        <v>505.7007997011297</v>
       </c>
       <c r="Q11" t="n">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1191,10 +1163,8 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
+      <c r="D12" t="n">
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1217,32 +1187,28 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Chalco</t>
+          <t>Owner_6</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>971.2080174463782</v>
-      </c>
-      <c r="L12" t="n">
-        <v>309.6982471602037</v>
-      </c>
-      <c r="M12" t="n">
-        <v>476.6305040596337</v>
-      </c>
+        <v>1213.51759166574</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>2043.711028637628</v>
+        <v>3635.801773597138</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>291.958718376804</v>
+        <v>519.4002533710196</v>
       </c>
       <c r="Q12" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1279,29 +1245,25 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>1228.413693331603</v>
-      </c>
-      <c r="L13" t="n">
-        <v>309.6982471602037</v>
-      </c>
-      <c r="M13" t="n">
-        <v>492.1818106243246</v>
-      </c>
+        <v>971.1609032543009</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>2332.29936381186</v>
+        <v>2394.282183617542</v>
       </c>
       <c r="O13" t="n">
         <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>333.1856234016943</v>
+        <v>342.0403119453632</v>
       </c>
       <c r="Q13" t="n">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="R13" t="n">
         <v>4</v>
@@ -1341,7 +1303,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Chalco</t>
+          <t>Owner_6</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -1366,7 +1328,7 @@
         <v>4</v>
       </c>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1403,32 +1365,28 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Chalco</t>
+          <t>Owner_6</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>1357.281691764819</v>
-      </c>
-      <c r="L15" t="n">
-        <v>342.5458399840058</v>
-      </c>
-      <c r="M15" t="n">
-        <v>380.4098151688974</v>
-      </c>
+        <v>1063.967074965464</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>2387.261707831765</v>
+        <v>2459.581667359113</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0373868331093</v>
+        <v>351.3688096227305</v>
       </c>
       <c r="Q15" t="n">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1465,29 +1423,25 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>1325.727593383023</v>
-      </c>
-      <c r="L16" t="n">
-        <v>342.4479468599034</v>
-      </c>
-      <c r="M16" t="n">
-        <v>500.7585834233935</v>
-      </c>
+        <v>1196.547320267127</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>2520.163570458752</v>
+        <v>3678.931343056861</v>
       </c>
       <c r="O16" t="n">
         <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>360.0233672083932</v>
+        <v>525.5616204366945</v>
       </c>
       <c r="Q16" t="n">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="R16" t="n">
         <v>4</v>
@@ -1527,29 +1481,25 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>1309.022482475014</v>
-      </c>
-      <c r="L17" t="n">
-        <v>342.4479468599034</v>
-      </c>
-      <c r="M17" t="n">
-        <v>500.7585834233935</v>
-      </c>
+        <v>1313.058839838228</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>2503.458459550743</v>
+        <v>3795.442862627962</v>
       </c>
       <c r="O17" t="n">
         <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>357.6369227929633</v>
+        <v>542.206123232566</v>
       </c>
       <c r="Q17" t="n">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="R17" t="n">
         <v>4</v>
@@ -1589,29 +1539,25 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>1313.662791060572</v>
-      </c>
-      <c r="L18" t="n">
-        <v>348.5635973038256</v>
-      </c>
-      <c r="M18" t="n">
-        <v>554.7946628979965</v>
-      </c>
+        <v>1357.234577572742</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>2535.494212550954</v>
+        <v>10026.24871562264</v>
       </c>
       <c r="O18" t="n">
         <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>362.2134589358506</v>
+        <v>1432.321245088949</v>
       </c>
       <c r="Q18" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R18" t="n">
         <v>4</v>
@@ -1651,29 +1597,25 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Qiya</t>
+          <t>Owner_9</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>1249.626532579869</v>
-      </c>
-      <c r="L19" t="n">
-        <v>352.6857877660269</v>
-      </c>
-      <c r="M19" t="n">
-        <v>446.7225039487905</v>
-      </c>
+        <v>1325.680479190946</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>2345.934769016687</v>
+        <v>3769.87280415539</v>
       </c>
       <c r="O19" t="n">
         <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>335.1335384309554</v>
+        <v>538.5532577364843</v>
       </c>
       <c r="Q19" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="R19" t="n">
         <v>4</v>
@@ -1713,29 +1655,25 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Qiya</t>
+          <t>Owner_9</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>1249.626532579869</v>
-      </c>
-      <c r="L20" t="n">
-        <v>352.6857877660269</v>
-      </c>
-      <c r="M20" t="n">
-        <v>446.7225039487905</v>
-      </c>
+        <v>1308.975368282936</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>2369.552139976576</v>
+        <v>3776.785064207269</v>
       </c>
       <c r="O20" t="n">
         <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>338.5074485680823</v>
+        <v>539.5407234581813</v>
       </c>
       <c r="Q20" t="n">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="R20" t="n">
         <v>4</v>
@@ -1775,29 +1713,25 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>SPIC</t>
+          <t>Owner_5</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>1355.690728821199</v>
-      </c>
-      <c r="L21" t="n">
-        <v>342.4479468599034</v>
-      </c>
-      <c r="M21" t="n">
-        <v>493.6078089062543</v>
-      </c>
+        <v>1313.615676868495</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>2498.7708455014</v>
+        <v>2709.230269262144</v>
       </c>
       <c r="O21" t="n">
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>356.9672636430572</v>
+        <v>387.0328956088777</v>
       </c>
       <c r="Q21" t="n">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="R21" t="n">
         <v>4</v>
@@ -1837,7 +1771,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1899,32 +1833,28 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Chalco</t>
+          <t>Owner_6</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>1276.142581640202</v>
-      </c>
-      <c r="L23" t="n">
-        <v>348.5635973038256</v>
-      </c>
-      <c r="M23" t="n">
-        <v>554.7946628979965</v>
-      </c>
+        <v>1249.579418387792</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>2449.265509333834</v>
+        <v>7788.520127818443</v>
       </c>
       <c r="O23" t="n">
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>349.8950727619763</v>
+        <v>1112.645732545492</v>
       </c>
       <c r="Q23" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1961,32 +1891,28 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Chalco</t>
+          <t>Owner_6</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>1289.400606170368</v>
-      </c>
-      <c r="L24" t="n">
-        <v>279.618359936023</v>
-      </c>
-      <c r="M24" t="n">
-        <v>347.4670934131404</v>
-      </c>
+        <v>1355.643614629122</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>2191.773949699516</v>
+        <v>5843.415059702415</v>
       </c>
       <c r="O24" t="n">
         <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>313.110564242788</v>
+        <v>834.7735799574878</v>
       </c>
       <c r="Q24" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="R24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -2023,32 +1949,26 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Chalco</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>1289.400606170368</v>
-      </c>
-      <c r="L25" t="n">
-        <v>279.618359936023</v>
-      </c>
-      <c r="M25" t="n">
-        <v>347.4670934131404</v>
-      </c>
+          <t>Owner_6</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
-        <v>2214.214507041766</v>
+        <v>4510.212002415543</v>
       </c>
       <c r="O25" t="n">
         <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>316.3163581488237</v>
+        <v>644.3160003450776</v>
       </c>
       <c r="Q25" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="R25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -2085,32 +2005,28 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Chalco</t>
+          <t>Owner_6</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>1218.134665526446</v>
-      </c>
-      <c r="L26" t="n">
-        <v>94.51208016866229</v>
-      </c>
-      <c r="M26" t="n">
-        <v>703.1299359880289</v>
-      </c>
+        <v>1169.489721019512</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>2386.657644229133</v>
+        <v>5823.71965474737</v>
       </c>
       <c r="O26" t="n">
         <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>340.9510920327334</v>
+        <v>831.9599506781957</v>
       </c>
       <c r="Q26" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -2147,7 +2063,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Chalco</t>
+          <t>Owner_6</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -2172,7 +2088,7 @@
         <v>6</v>
       </c>
       <c r="R27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -2209,32 +2125,28 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Chalco</t>
+          <t>Owner_6</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>1315.9166552307</v>
-      </c>
-      <c r="L28" t="n">
-        <v>292.967422313618</v>
-      </c>
-      <c r="M28" t="n">
-        <v>331.9157868484496</v>
-      </c>
+        <v>1289.353491978291</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>2206.207449583181</v>
+        <v>5770.653732384979</v>
       </c>
       <c r="O28" t="n">
         <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>315.1724927975973</v>
+        <v>824.3791046264256</v>
       </c>
       <c r="Q28" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -2271,29 +2183,25 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Jinjiang</t>
+          <t>Owner_7</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>1315.9166552307</v>
-      </c>
-      <c r="L29" t="n">
-        <v>300.976859740175</v>
-      </c>
-      <c r="M29" t="n">
-        <v>332.3439188627484</v>
-      </c>
+        <v>1289.353491978291</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>2219.085918799712</v>
+        <v>5787.768291122961</v>
       </c>
       <c r="O29" t="n">
         <v>2</v>
       </c>
       <c r="P29" t="n">
-        <v>317.0122741142445</v>
+        <v>826.8240415889944</v>
       </c>
       <c r="Q29" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R29" t="n">
         <v>4</v>
@@ -2333,29 +2241,25 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Jinjiang</t>
+          <t>Owner_7</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>1329.174679760867</v>
-      </c>
-      <c r="L30" t="n">
-        <v>300.976859740175</v>
-      </c>
-      <c r="M30" t="n">
-        <v>332.3439188627484</v>
-      </c>
+        <v>1289.353491978291</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>2245.755469829167</v>
+        <v>5801.17981762225</v>
       </c>
       <c r="O30" t="n">
         <v>2</v>
       </c>
       <c r="P30" t="n">
-        <v>320.8222099755953</v>
+        <v>828.7399739460358</v>
       </c>
       <c r="Q30" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R30" t="n">
         <v>4</v>
@@ -2395,29 +2299,25 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>East Hope</t>
+          <t>Owner_10</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>1355.690728821199</v>
-      </c>
-      <c r="L31" t="n">
-        <v>300.976859740175</v>
-      </c>
-      <c r="M31" t="n">
-        <v>332.3439188627484</v>
-      </c>
+        <v>1289.353491978291</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>2248.911643297738</v>
+        <v>5779.976322643589</v>
       </c>
       <c r="O31" t="n">
         <v>2</v>
       </c>
       <c r="P31" t="n">
-        <v>321.2730918996769</v>
+        <v>825.7109032347984</v>
       </c>
       <c r="Q31" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="R31" t="n">
         <v>4</v>
@@ -2457,7 +2357,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>East Hope</t>
+          <t>Owner_10</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -2519,7 +2419,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Shenhuo</t>
+          <t>Owner_11</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -2581,7 +2481,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -2643,7 +2543,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Shenhuo</t>
+          <t>Owner_11</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -2705,29 +2605,25 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>1302.658630700534</v>
-      </c>
-      <c r="L36" t="n">
-        <v>287.62779736258</v>
-      </c>
-      <c r="M36" t="n">
-        <v>336.8912627816111</v>
-      </c>
+        <v>1289.353491978291</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>2218.345141155448</v>
+        <v>6841.968260712321</v>
       </c>
       <c r="O36" t="n">
         <v>2</v>
       </c>
       <c r="P36" t="n">
-        <v>316.9064487364926</v>
+        <v>977.4240372446174</v>
       </c>
       <c r="Q36" t="n">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="R36" t="n">
         <v>4</v>
@@ -2767,29 +2663,25 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>1302.658630700534</v>
-      </c>
-      <c r="L37" t="n">
-        <v>287.62779736258</v>
-      </c>
-      <c r="M37" t="n">
-        <v>336.8912627816111</v>
-      </c>
+        <v>1451.101391246319</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>2206.186747221424</v>
+        <v>6991.557766046327</v>
       </c>
       <c r="O37" t="n">
         <v>2</v>
       </c>
       <c r="P37" t="n">
-        <v>315.1695353173463</v>
+        <v>998.7939665780467</v>
       </c>
       <c r="Q37" t="n">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="R37" t="n">
         <v>4</v>
@@ -2829,7 +2721,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K38" t="n">
@@ -2891,7 +2783,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K39" t="n">
@@ -2953,29 +2845,25 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Jinjiang</t>
+          <t>Owner_7</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>1408.722826941864</v>
-      </c>
-      <c r="L40" t="n">
-        <v>287.62779736258</v>
-      </c>
-      <c r="M40" t="n">
-        <v>322.1962202455178</v>
-      </c>
+        <v>1302.611516508457</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>2321.25525566541</v>
+        <v>6859.968919028007</v>
       </c>
       <c r="O40" t="n">
         <v>2</v>
       </c>
       <c r="P40" t="n">
-        <v>331.6078936664871</v>
+        <v>979.9955598611439</v>
       </c>
       <c r="Q40" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="R40" t="n">
         <v>4</v>
@@ -3015,29 +2903,25 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>1382.206777881532</v>
-      </c>
-      <c r="L41" t="n">
-        <v>287.62779736258</v>
-      </c>
-      <c r="M41" t="n">
-        <v>324.1401335661041</v>
-      </c>
+        <v>1534.626945786366</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>2296.611119925663</v>
+        <v>6056.984348305917</v>
       </c>
       <c r="O41" t="n">
         <v>2</v>
       </c>
       <c r="P41" t="n">
-        <v>328.0873028465234</v>
+        <v>865.2834783294167</v>
       </c>
       <c r="Q41" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R41" t="n">
         <v>4</v>
@@ -3077,7 +2961,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -3139,7 +3023,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K43" t="n">
@@ -3201,7 +3085,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K44" t="n">
@@ -3263,7 +3147,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K45" t="n">
@@ -3325,7 +3209,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K46" t="n">
@@ -3387,29 +3271,23 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>1276.142581640202</v>
-      </c>
-      <c r="L47" t="n">
-        <v>277.3045224572399</v>
-      </c>
-      <c r="M47" t="n">
-        <v>387.3709369024857</v>
-      </c>
+          <t>Owner_1</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>2219.148815878511</v>
+        <v>1408.712640441364</v>
       </c>
       <c r="O47" t="n">
         <v>2</v>
       </c>
       <c r="P47" t="n">
-        <v>317.0212594112158</v>
+        <v>201.2446629201948</v>
       </c>
       <c r="Q47" t="n">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="R47" t="n">
         <v>4</v>
@@ -3449,7 +3327,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K48" t="n">
@@ -3511,7 +3389,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K49" t="n">
@@ -3573,7 +3451,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K50" t="n">
@@ -3635,29 +3513,25 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K51" t="n">
-        <v>1315.9166552307</v>
-      </c>
-      <c r="L51" t="n">
-        <v>270.6299912684424</v>
-      </c>
-      <c r="M51" t="n">
-        <v>308.06398426026</v>
-      </c>
+        <v>1276.095467448124</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
-        <v>2208.02121045647</v>
+        <v>3746.066692776409</v>
       </c>
       <c r="O51" t="n">
         <v>2</v>
       </c>
       <c r="P51" t="n">
-        <v>315.4316014937814</v>
+        <v>535.1523846823442</v>
       </c>
       <c r="Q51" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="R51" t="n">
         <v>4</v>
@@ -3697,7 +3571,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -3759,7 +3633,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K53" t="n">
@@ -3821,7 +3695,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Jinjiang</t>
+          <t>Owner_7</t>
         </is>
       </c>
       <c r="K54" t="n">
@@ -3883,7 +3757,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Chalco</t>
+          <t>Owner_6</t>
         </is>
       </c>
       <c r="K55" t="n">
@@ -3908,7 +3782,7 @@
         <v>24</v>
       </c>
       <c r="R55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -3945,32 +3819,28 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Chalco</t>
+          <t>Owner_6</t>
         </is>
       </c>
       <c r="K56" t="n">
-        <v>1143.562336338539</v>
-      </c>
-      <c r="L56" t="n">
-        <v>176.5139793893554</v>
-      </c>
-      <c r="M56" t="n">
-        <v>461.538240917782</v>
-      </c>
+        <v>1329.127565568789</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
-        <v>2040.89261713995</v>
+        <v>5817.474002778047</v>
       </c>
       <c r="O56" t="n">
         <v>1</v>
       </c>
       <c r="P56" t="n">
-        <v>291.55608816285</v>
+        <v>831.0677146825782</v>
       </c>
       <c r="Q56" t="n">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="R56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -4007,7 +3877,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Chalco</t>
+          <t>Owner_6</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -4032,7 +3902,7 @@
         <v>25</v>
       </c>
       <c r="R57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -4069,32 +3939,28 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Chalco</t>
+          <t>Owner_6</t>
         </is>
       </c>
       <c r="K58" t="n">
-        <v>1048.028483611354</v>
-      </c>
-      <c r="L58" t="n">
-        <v>56.94388556649051</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1043.139579349905</v>
-      </c>
+        <v>999.3835391044192</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
-        <v>2488.661031856293</v>
+        <v>5626.617538245398</v>
       </c>
       <c r="O58" t="n">
         <v>1</v>
       </c>
       <c r="P58" t="n">
-        <v>355.5230045508989</v>
+        <v>803.8025054636282</v>
       </c>
       <c r="Q58" t="n">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="R58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -4131,32 +3997,28 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Xinfa</t>
+          <t>Owner_8</t>
         </is>
       </c>
       <c r="K59" t="n">
-        <v>1170.078385398872</v>
-      </c>
-      <c r="L59" t="n">
-        <v>183.7447215105527</v>
-      </c>
-      <c r="M59" t="n">
-        <v>432.6711281070746</v>
-      </c>
+        <v>1143.515222146462</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
-        <v>2021.418637430691</v>
+        <v>5621.44832617952</v>
       </c>
       <c r="O59" t="n">
         <v>2</v>
       </c>
       <c r="P59" t="n">
-        <v>288.7740910615273</v>
+        <v>803.0640465970744</v>
       </c>
       <c r="Q59" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="R59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -4193,32 +4055,28 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Xinfa</t>
+          <t>Owner_8</t>
         </is>
       </c>
       <c r="K60" t="n">
-        <v>1200.764591629401</v>
-      </c>
-      <c r="L60" t="n">
-        <v>139.9744340760357</v>
-      </c>
-      <c r="M60" t="n">
-        <v>475.2619502868069</v>
-      </c>
+        <v>1173.504788975845</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
-        <v>2121.205872960596</v>
+        <v>27156.62991105693</v>
       </c>
       <c r="O60" t="n">
         <v>2</v>
       </c>
       <c r="P60" t="n">
-        <v>303.0294104229422</v>
+        <v>3879.518558722418</v>
       </c>
       <c r="Q60" t="n">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="R60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -4255,29 +4113,25 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Jinjiang</t>
+          <t>Owner_7</t>
         </is>
       </c>
       <c r="K61" t="n">
-        <v>984.4660419765446</v>
-      </c>
-      <c r="L61" t="n">
-        <v>183.7447215105527</v>
-      </c>
-      <c r="M61" t="n">
-        <v>432.6711281070746</v>
-      </c>
+        <v>1143.515222146462</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
-        <v>1873.730284182289</v>
+        <v>5650.631014197081</v>
       </c>
       <c r="O61" t="n">
         <v>2</v>
       </c>
       <c r="P61" t="n">
-        <v>267.6757548831841</v>
+        <v>807.2330020281544</v>
       </c>
       <c r="Q61" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="R61" t="n">
         <v>4</v>
@@ -4317,29 +4171,25 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Nanshan</t>
+          <t>Owner_12</t>
         </is>
       </c>
       <c r="K62" t="n">
-        <v>996.6786952129308</v>
-      </c>
-      <c r="L62" t="n">
-        <v>207.4506396827396</v>
-      </c>
-      <c r="M62" t="n">
-        <v>475.2619502868069</v>
-      </c>
+        <v>1200.716241831374</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
-        <v>2008.021055540591</v>
+        <v>39850.23173188431</v>
       </c>
       <c r="O62" t="n">
         <v>2</v>
       </c>
       <c r="P62" t="n">
-        <v>286.860150791513</v>
+        <v>5692.890247412045</v>
       </c>
       <c r="Q62" t="n">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="R62" t="n">
         <v>4</v>
@@ -4379,29 +4229,25 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Nanshan</t>
+          <t>Owner_12</t>
         </is>
       </c>
       <c r="K63" t="n">
-        <v>971.2080174463782</v>
-      </c>
-      <c r="L63" t="n">
-        <v>272.3208725029378</v>
-      </c>
-      <c r="M63" t="n">
-        <v>432.6711281070746</v>
-      </c>
+        <v>1170.031271206794</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
-        <v>1947.542933215155</v>
+        <v>7748.08438256652</v>
       </c>
       <c r="O63" t="n">
         <v>2</v>
       </c>
       <c r="P63" t="n">
-        <v>278.2204190307365</v>
+        <v>1106.869197509503</v>
       </c>
       <c r="Q63" t="n">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="R63" t="n">
         <v>4</v>
@@ -4441,29 +4287,25 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K64" t="n">
-        <v>1010.982091036877</v>
-      </c>
-      <c r="L64" t="n">
-        <v>270.0960287733386</v>
-      </c>
-      <c r="M64" t="n">
-        <v>432.6711281070746</v>
-      </c>
+        <v>984.4189277844672</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
       <c r="N64" t="n">
-        <v>2004.213018271412</v>
+        <v>6540.257870233982</v>
       </c>
       <c r="O64" t="n">
         <v>2</v>
       </c>
       <c r="P64" t="n">
-        <v>286.3161454673446</v>
+        <v>934.3225528905688</v>
       </c>
       <c r="Q64" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="R64" t="n">
         <v>4</v>
@@ -4503,7 +4345,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K65" t="n">
@@ -4565,32 +4407,28 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Weiqiao</t>
+          <t>Owner_13</t>
         </is>
       </c>
       <c r="K66" t="n">
-        <v>1090.530238217874</v>
-      </c>
-      <c r="L66" t="n">
-        <v>265.6463413141403</v>
-      </c>
-      <c r="M66" t="n">
-        <v>432.6711281070746</v>
-      </c>
+        <v>971.1609032543009</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
-        <v>2029.558723679562</v>
+        <v>6488.804787561978</v>
       </c>
       <c r="O66" t="n">
         <v>2</v>
       </c>
       <c r="P66" t="n">
-        <v>289.9369605256517</v>
+        <v>926.9721125088539</v>
       </c>
       <c r="Q66" t="n">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="R66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -4627,32 +4465,28 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Weiqiao</t>
+          <t>Owner_13</t>
         </is>
       </c>
       <c r="K67" t="n">
-        <v>1119.130233062813</v>
-      </c>
-      <c r="L67" t="n">
-        <v>202.3660651807116</v>
-      </c>
-      <c r="M67" t="n">
-        <v>475.2619502868069</v>
-      </c>
+        <v>1037.447524698198</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
-        <v>2104.963191030713</v>
+        <v>33347.12885895964</v>
       </c>
       <c r="O67" t="n">
         <v>2</v>
       </c>
       <c r="P67" t="n">
-        <v>300.7090272901019</v>
+        <v>4763.875551279949</v>
       </c>
       <c r="Q67" t="n">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="R67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -4689,32 +4523,26 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Weiqiao</t>
-        </is>
-      </c>
-      <c r="K68" t="n">
-        <v>1064.014189157542</v>
-      </c>
-      <c r="L68" t="n">
-        <v>270.0960287733386</v>
-      </c>
-      <c r="M68" t="n">
-        <v>432.6711281070746</v>
-      </c>
+          <t>Owner_13</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
-        <v>1997.079524493949</v>
+        <v>6543.902697277723</v>
       </c>
       <c r="O68" t="n">
         <v>2</v>
       </c>
       <c r="P68" t="n">
-        <v>285.297074927707</v>
+        <v>934.8432424682461</v>
       </c>
       <c r="Q68" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="R68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -4751,32 +4579,28 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Weiqiao</t>
+          <t>Owner_13</t>
         </is>
       </c>
       <c r="K69" t="n">
-        <v>1091.918780207284</v>
-      </c>
-      <c r="L69" t="n">
-        <v>205.7557815153969</v>
-      </c>
-      <c r="M69" t="n">
-        <v>475.2619502868069</v>
-      </c>
+        <v>1119.081883264786</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
       <c r="N69" t="n">
-        <v>2073.350447013288</v>
+        <v>39747.27586058417</v>
       </c>
       <c r="O69" t="n">
         <v>2</v>
       </c>
       <c r="P69" t="n">
-        <v>296.1929210018982</v>
+        <v>5678.182265797739</v>
       </c>
       <c r="Q69" t="n">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="R69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -4813,29 +4637,25 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K70" t="n">
-        <v>1408.722826941864</v>
-      </c>
-      <c r="L70" t="n">
-        <v>299.5529597532316</v>
-      </c>
-      <c r="M70" t="n">
-        <v>301.4070163770887</v>
-      </c>
+        <v>1090.483124025797</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
-        <v>2323.241251337543</v>
+        <v>5621.606413197002</v>
       </c>
       <c r="O70" t="n">
         <v>2</v>
       </c>
       <c r="P70" t="n">
-        <v>331.8916073339347</v>
+        <v>803.0866304567146</v>
       </c>
       <c r="Q70" t="n">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="R70" t="n">
         <v>4</v>
@@ -4875,32 +4695,28 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Chalco</t>
+          <t>Owner_6</t>
         </is>
       </c>
       <c r="K71" t="n">
-        <v>1276.142581640202</v>
-      </c>
-      <c r="L71" t="n">
-        <v>299.6642019397115</v>
-      </c>
-      <c r="M71" t="n">
-        <v>305.2948430182614</v>
-      </c>
+        <v>1063.967074965464</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
       <c r="N71" t="n">
-        <v>2150.650361790275</v>
+        <v>5549.435306921251</v>
       </c>
       <c r="O71" t="n">
         <v>1</v>
       </c>
       <c r="P71" t="n">
-        <v>307.2357659700393</v>
+        <v>792.7764724173215</v>
       </c>
       <c r="Q71" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -4937,32 +4753,28 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Chalco</t>
+          <t>Owner_6</t>
         </is>
       </c>
       <c r="K72" t="n">
-        <v>1329.174679760867</v>
-      </c>
-      <c r="L72" t="n">
-        <v>323.3587876599426</v>
-      </c>
-      <c r="M72" t="n">
-        <v>305.2948430182614</v>
-      </c>
+        <v>1063.967074965464</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
       <c r="N72" t="n">
-        <v>2226.468463138449</v>
+        <v>5550.068102854427</v>
       </c>
       <c r="O72" t="n">
         <v>1</v>
       </c>
       <c r="P72" t="n">
-        <v>318.0669233054928</v>
+        <v>792.8668718363467</v>
       </c>
       <c r="Q72" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="R72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -4999,32 +4811,28 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Chalco</t>
+          <t>Owner_6</t>
         </is>
       </c>
       <c r="K73" t="n">
-        <v>1329.174679760867</v>
-      </c>
-      <c r="L73" t="n">
-        <v>323.3587876599426</v>
-      </c>
-      <c r="M73" t="n">
-        <v>305.2948430182614</v>
-      </c>
+        <v>1408.675712749787</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
       <c r="N73" t="n">
-        <v>2228.884443040628</v>
+        <v>5897.192720540927</v>
       </c>
       <c r="O73" t="n">
         <v>1</v>
       </c>
       <c r="P73" t="n">
-        <v>318.4120632915183</v>
+        <v>842.4561029344183</v>
       </c>
       <c r="Q73" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="R73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -5061,29 +4869,25 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>SPIC</t>
+          <t>Owner_5</t>
         </is>
       </c>
       <c r="K74" t="n">
-        <v>1262.884557110036</v>
-      </c>
-      <c r="L74" t="n">
-        <v>296.6606629047526</v>
-      </c>
-      <c r="M74" t="n">
-        <v>301.4070163770887</v>
-      </c>
+        <v>1276.095467448124</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
       <c r="N74" t="n">
-        <v>2134.456838486416</v>
+        <v>5767.590771510487</v>
       </c>
       <c r="O74" t="n">
         <v>1</v>
       </c>
       <c r="P74" t="n">
-        <v>304.9224054980594</v>
+        <v>823.9415387872124</v>
       </c>
       <c r="Q74" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="R74" t="n">
         <v>4</v>
@@ -5123,29 +4927,25 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>SPIC</t>
+          <t>Owner_5</t>
         </is>
       </c>
       <c r="K75" t="n">
-        <v>1262.884557110036</v>
-      </c>
-      <c r="L75" t="n">
-        <v>296.6606629047526</v>
-      </c>
-      <c r="M75" t="n">
-        <v>301.4070163770887</v>
-      </c>
+        <v>1329.127565568789</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="n">
-        <v>2125.794426625251</v>
+        <v>5811.960457769987</v>
       </c>
       <c r="O75" t="n">
         <v>1</v>
       </c>
       <c r="P75" t="n">
-        <v>303.6849180893215</v>
+        <v>830.2800653957123</v>
       </c>
       <c r="Q75" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="R75" t="n">
         <v>4</v>
@@ -5185,7 +4985,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K76" t="n">
@@ -5247,29 +5047,25 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K77" t="n">
-        <v>1329.174679760867</v>
-      </c>
-      <c r="L77" t="n">
-        <v>283.9790536460374</v>
-      </c>
-      <c r="M77" t="n">
-        <v>301.4070163770887</v>
-      </c>
+        <v>1262.837442917958</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
-        <v>2219.095526095612</v>
+        <v>4752.090887799834</v>
       </c>
       <c r="O77" t="n">
         <v>2</v>
       </c>
       <c r="P77" t="n">
-        <v>317.0136465850874</v>
+        <v>678.8701268285477</v>
       </c>
       <c r="Q77" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="R77" t="n">
         <v>4</v>
@@ -5309,29 +5105,25 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>East Hope</t>
+          <t>Owner_10</t>
         </is>
       </c>
       <c r="K78" t="n">
-        <v>1355.690728821199</v>
-      </c>
-      <c r="L78" t="n">
-        <v>219.9758602615494</v>
-      </c>
-      <c r="M78" t="n">
-        <v>299.2455731981046</v>
-      </c>
+        <v>1262.837442917958</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
       <c r="N78" t="n">
-        <v>2141.053595519515</v>
+        <v>4725.356532887365</v>
       </c>
       <c r="O78" t="n">
         <v>2</v>
       </c>
       <c r="P78" t="n">
-        <v>305.8647993599307</v>
+        <v>675.0509332696236</v>
       </c>
       <c r="Q78" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R78" t="n">
         <v>4</v>
@@ -5371,29 +5163,25 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>East Hope</t>
+          <t>Owner_10</t>
         </is>
       </c>
       <c r="K79" t="n">
-        <v>1355.690728821199</v>
-      </c>
-      <c r="L79" t="n">
-        <v>219.9758602615494</v>
-      </c>
-      <c r="M79" t="n">
-        <v>299.2455731981046</v>
-      </c>
+        <v>1329.127565568789</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
       <c r="N79" t="n">
-        <v>2132.302156672411</v>
+        <v>4782.895216691091</v>
       </c>
       <c r="O79" t="n">
         <v>2</v>
       </c>
       <c r="P79" t="n">
-        <v>304.6145938103444</v>
+        <v>683.2707452415845</v>
       </c>
       <c r="Q79" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R79" t="n">
         <v>4</v>
@@ -5433,29 +5221,25 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K80" t="n">
-        <v>1355.690728821199</v>
-      </c>
-      <c r="L80" t="n">
-        <v>299.5529597532316</v>
-      </c>
-      <c r="M80" t="n">
-        <v>299.2455731981046</v>
-      </c>
+        <v>1329.127565568789</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
       <c r="N80" t="n">
-        <v>2262.443145284155</v>
+        <v>5767.876294450665</v>
       </c>
       <c r="O80" t="n">
         <v>2</v>
       </c>
       <c r="P80" t="n">
-        <v>323.2061636120221</v>
+        <v>823.9823277786664</v>
       </c>
       <c r="Q80" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="R80" t="n">
         <v>4</v>
@@ -5495,7 +5279,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K81" t="n">
@@ -5557,29 +5341,25 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K82" t="n">
-        <v>1461.754925062529</v>
-      </c>
-      <c r="L82" t="n">
-        <v>297.3281160236324</v>
-      </c>
-      <c r="M82" t="n">
-        <v>303.350929697675</v>
-      </c>
+        <v>1355.643614629122</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
       <c r="N82" t="n">
-        <v>2335.592170945706</v>
+        <v>5855.830612817726</v>
       </c>
       <c r="O82" t="n">
         <v>2</v>
       </c>
       <c r="P82" t="n">
-        <v>333.6560244208152</v>
+        <v>836.5472304025324</v>
       </c>
       <c r="Q82" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="R82" t="n">
         <v>4</v>
@@ -5619,29 +5399,25 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K83" t="n">
-        <v>1408.722826941864</v>
-      </c>
-      <c r="L83" t="n">
-        <v>299.5529597532316</v>
-      </c>
-      <c r="M83" t="n">
-        <v>297.0841300191205</v>
-      </c>
+        <v>1355.643614629122</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
       <c r="N83" t="n">
-        <v>2309.966693025836</v>
+        <v>5879.897059510997</v>
       </c>
       <c r="O83" t="n">
         <v>2</v>
       </c>
       <c r="P83" t="n">
-        <v>329.9952418608337</v>
+        <v>839.9852942158567</v>
       </c>
       <c r="Q83" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R83" t="n">
         <v>4</v>
@@ -5681,7 +5457,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K84" t="n">
@@ -5743,32 +5519,28 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Xinfa</t>
+          <t>Owner_8</t>
         </is>
       </c>
       <c r="K85" t="n">
-        <v>1329.174679760867</v>
-      </c>
-      <c r="L85" t="n">
-        <v>207.5149282127302</v>
-      </c>
-      <c r="M85" t="n">
-        <v>297.0841300191205</v>
-      </c>
+        <v>1461.707810870452</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
       <c r="N85" t="n">
-        <v>2091.952578670037</v>
+        <v>5950.12010450769</v>
       </c>
       <c r="O85" t="n">
         <v>2</v>
       </c>
       <c r="P85" t="n">
-        <v>298.8503683814339</v>
+        <v>850.0171577868128</v>
       </c>
       <c r="Q85" t="n">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="R85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -5805,32 +5577,28 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Xinfa</t>
+          <t>Owner_8</t>
         </is>
       </c>
       <c r="K86" t="n">
-        <v>1276.142581640202</v>
-      </c>
-      <c r="L86" t="n">
-        <v>207.5149282127302</v>
-      </c>
-      <c r="M86" t="n">
-        <v>297.0841300191205</v>
-      </c>
+        <v>1408.675712749787</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
       <c r="N86" t="n">
-        <v>2034.529664396291</v>
+        <v>5894.14604347318</v>
       </c>
       <c r="O86" t="n">
         <v>2</v>
       </c>
       <c r="P86" t="n">
-        <v>290.6470949137559</v>
+        <v>842.0208633533114</v>
       </c>
       <c r="Q86" t="n">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="R86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -5867,29 +5635,25 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Jinjiang</t>
+          <t>Owner_7</t>
         </is>
       </c>
       <c r="K87" t="n">
-        <v>1249.626532579869</v>
-      </c>
-      <c r="L87" t="n">
-        <v>299.5529597532316</v>
-      </c>
-      <c r="M87" t="n">
-        <v>281.046845124283</v>
-      </c>
+        <v>1461.707810870452</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
       <c r="N87" t="n">
-        <v>2089.929819991989</v>
+        <v>5532.793220764974</v>
       </c>
       <c r="O87" t="n">
         <v>2</v>
       </c>
       <c r="P87" t="n">
-        <v>298.5614028559984</v>
+        <v>790.3990315378534</v>
       </c>
       <c r="Q87" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="R87" t="n">
         <v>4</v>
@@ -5929,29 +5693,25 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Jinjiang</t>
+          <t>Owner_7</t>
         </is>
       </c>
       <c r="K88" t="n">
-        <v>1249.626532579869</v>
-      </c>
-      <c r="L88" t="n">
-        <v>299.5529597532316</v>
-      </c>
-      <c r="M88" t="n">
-        <v>281.046845124283</v>
-      </c>
+        <v>1329.127565568789</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
       <c r="N88" t="n">
-        <v>2102.193456472228</v>
+        <v>5412.476611943551</v>
       </c>
       <c r="O88" t="n">
         <v>2</v>
       </c>
       <c r="P88" t="n">
-        <v>300.313350924604</v>
+        <v>773.2109445633644</v>
       </c>
       <c r="Q88" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="R88" t="n">
         <v>4</v>
@@ -5991,32 +5751,28 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Xinfa</t>
+          <t>Owner_8</t>
         </is>
       </c>
       <c r="K89" t="n">
-        <v>1367.622950898349</v>
-      </c>
-      <c r="L89" t="n">
-        <v>286.2038973756366</v>
-      </c>
-      <c r="M89" t="n">
-        <v>296.0034084296284</v>
-      </c>
+        <v>1276.095467448124</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
-        <v>2226.988995676523</v>
+        <v>5779.339521851412</v>
       </c>
       <c r="O89" t="n">
         <v>2</v>
       </c>
       <c r="P89" t="n">
-        <v>318.1412850966461</v>
+        <v>825.6199316930589</v>
       </c>
       <c r="Q89" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="R89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
@@ -6053,7 +5809,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K90" t="n">
@@ -6115,32 +5871,28 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Chalco</t>
+          <t>Owner_6</t>
         </is>
       </c>
       <c r="K91" t="n">
-        <v>1329.174679760867</v>
-      </c>
-      <c r="L91" t="n">
-        <v>314.0144439956261</v>
-      </c>
-      <c r="M91" t="n">
-        <v>303.350929697675</v>
-      </c>
+        <v>1249.579418387792</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
       <c r="N91" t="n">
-        <v>2272.287240339397</v>
+        <v>7853.468465908849</v>
       </c>
       <c r="O91" t="n">
         <v>1</v>
       </c>
       <c r="P91" t="n">
-        <v>324.6124629056281</v>
+        <v>1121.924066558407</v>
       </c>
       <c r="Q91" t="n">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="R91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -6177,32 +5929,28 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Chalco</t>
+          <t>Owner_6</t>
         </is>
       </c>
       <c r="K92" t="n">
-        <v>1329.174679760867</v>
-      </c>
-      <c r="L92" t="n">
-        <v>314.0144439956261</v>
-      </c>
-      <c r="M92" t="n">
-        <v>303.350929697675</v>
-      </c>
+        <v>1367.575836706272</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
       <c r="N92" t="n">
-        <v>2237.430486195829</v>
+        <v>7936.60813008376</v>
       </c>
       <c r="O92" t="n">
         <v>1</v>
       </c>
       <c r="P92" t="n">
-        <v>319.6329265994041</v>
+        <v>1133.801161440537</v>
       </c>
       <c r="Q92" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="R92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
@@ -6239,7 +5987,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Owner_1</t>
         </is>
       </c>
       <c r="K93" t="n">
@@ -6301,29 +6049,25 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Jinjiang</t>
+          <t>Owner_7</t>
         </is>
       </c>
       <c r="K94" t="n">
-        <v>1461.754925062529</v>
-      </c>
-      <c r="L94" t="n">
-        <v>297.3281160236324</v>
-      </c>
-      <c r="M94" t="n">
-        <v>297.9473217502148</v>
-      </c>
+        <v>1329.127565568789</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
       <c r="N94" t="n">
-        <v>2342.20850279783</v>
+        <v>5838.502761473218</v>
       </c>
       <c r="O94" t="n">
         <v>2</v>
       </c>
       <c r="P94" t="n">
-        <v>334.6012146854042</v>
+        <v>834.0718230676026</v>
       </c>
       <c r="Q94" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="R94" t="n">
         <v>4</v>
@@ -6363,32 +6107,28 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Chalco</t>
+          <t>Owner_6</t>
         </is>
       </c>
       <c r="K95" t="n">
-        <v>1408.722826941864</v>
-      </c>
-      <c r="L95" t="n">
-        <v>182.9322589656347</v>
-      </c>
-      <c r="M95" t="n">
-        <v>434.7154099814338</v>
-      </c>
+        <v>1329.127565568789</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
       <c r="N95" t="n">
-        <v>2321.834044331772</v>
+        <v>7886.164149885473</v>
       </c>
       <c r="O95" t="n">
         <v>1</v>
       </c>
       <c r="P95" t="n">
-        <v>331.6905777616817</v>
+        <v>1126.594878555068</v>
       </c>
       <c r="Q95" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="R95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
@@ -6621,20 +6361,20 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>1216.006520798824</v>
+        <v>1094.02022241644</v>
       </c>
       <c r="L102" t="n">
-        <v>260.4251486916674</v>
+        <v>0</v>
       </c>
       <c r="M102" t="n">
-        <v>400.9338200153052</v>
+        <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>2148.471266320867</v>
+        <v>8072.155302640153</v>
       </c>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="n">
-        <v>306.9244666172667</v>
+        <v>1153.165043234308</v>
       </c>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
@@ -6652,7 +6392,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>56.6 %</t>
+          <t>13.55 %</t>
         </is>
       </c>
       <c r="L103" t="inlineStr"/>
@@ -6729,19 +6469,19 @@
         <v>1900</v>
       </c>
       <c r="C2" t="n">
-        <v>162.72</v>
+        <v>162.71</v>
       </c>
       <c r="D2" t="n">
-        <v>38.79</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>61.09</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>305.7</v>
+        <v>364.29</v>
       </c>
       <c r="G2" t="n">
-        <v>2139.9</v>
+        <v>2550.03</v>
       </c>
     </row>
     <row r="3">
@@ -6754,19 +6494,19 @@
         <v>10900</v>
       </c>
       <c r="C3" t="n">
-        <v>161.57</v>
+        <v>160.13</v>
       </c>
       <c r="D3" t="n">
-        <v>42.07</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>69.02</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>313.15</v>
+        <v>462.28</v>
       </c>
       <c r="G3" t="n">
-        <v>2192.05</v>
+        <v>3235.96</v>
       </c>
     </row>
     <row r="4">
@@ -6779,19 +6519,19 @@
         <v>5700</v>
       </c>
       <c r="C4" t="n">
-        <v>186.42</v>
+        <v>179.07</v>
       </c>
       <c r="D4" t="n">
-        <v>49.55</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>69.56</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>348.3</v>
+        <v>718.39</v>
       </c>
       <c r="G4" t="n">
-        <v>2438.1</v>
+        <v>5028.73</v>
       </c>
     </row>
     <row r="5">
@@ -6804,19 +6544,19 @@
         <v>11900</v>
       </c>
       <c r="C5" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>41.1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>49.13</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>318.6</v>
+        <v>850.35</v>
       </c>
       <c r="G5" t="n">
-        <v>2230.2</v>
+        <v>5952.45</v>
       </c>
     </row>
     <row r="6">
@@ -6829,19 +6569,19 @@
         <v>700</v>
       </c>
       <c r="C6" t="n">
-        <v>183.93</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>39.34</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>52.1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>316.57</v>
+        <v>296.65</v>
       </c>
       <c r="G6" t="n">
-        <v>2215.99</v>
+        <v>2076.55</v>
       </c>
     </row>
     <row r="7">
@@ -6904,19 +6644,19 @@
         <v>31900</v>
       </c>
       <c r="C9" t="n">
-        <v>157.02</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>31.38</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>65.51000000000001</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>290.93</v>
+        <v>1919.38</v>
       </c>
       <c r="G9" t="n">
-        <v>2036.51</v>
+        <v>13435.66</v>
       </c>
     </row>
     <row r="10">
@@ -6929,19 +6669,19 @@
         <v>25570</v>
       </c>
       <c r="C10" t="n">
-        <v>188.59</v>
+        <v>189.26</v>
       </c>
       <c r="D10" t="n">
-        <v>38.35</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>42.61</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>307.85</v>
+        <v>813.36</v>
       </c>
       <c r="G10" t="n">
-        <v>2154.95</v>
+        <v>5693.52</v>
       </c>
     </row>
     <row r="11">
@@ -6954,44 +6694,42 @@
         <v>1600</v>
       </c>
       <c r="C11" t="n">
-        <v>201.25</v>
+        <v>189.88</v>
       </c>
       <c r="D11" t="n">
-        <v>26.13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>62.1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>331.69</v>
+        <v>1126.59</v>
       </c>
       <c r="G11" t="n">
-        <v>2321.83</v>
+        <v>7886.129999999999</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
+      <c r="A12" t="n">
+        <v>0</v>
       </c>
       <c r="B12" t="n">
         <v>90170</v>
       </c>
       <c r="C12" t="n">
-        <v>173.715318842187</v>
+        <v>91.14396362426528</v>
       </c>
       <c r="D12" t="n">
-        <v>37.20490739713874</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>57.27697349451037</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>306.9259121659088</v>
+        <v>1153.166543196185</v>
       </c>
       <c r="G12" t="n">
-        <v>2148.481385161362</v>
+        <v>8072.165802373294</v>
       </c>
     </row>
   </sheetData>
@@ -7060,19 +6798,19 @@
         <v>11900</v>
       </c>
       <c r="C2" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>41.1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>49.13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>318.6</v>
+        <v>850.35</v>
       </c>
       <c r="G2" t="n">
-        <v>2230.2</v>
+        <v>5952.45</v>
       </c>
     </row>
     <row r="3">
@@ -7085,19 +6823,19 @@
         <v>25570</v>
       </c>
       <c r="C3" t="n">
-        <v>188.59</v>
+        <v>189.26</v>
       </c>
       <c r="D3" t="n">
-        <v>38.35</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>42.61</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>307.85</v>
+        <v>813.36</v>
       </c>
       <c r="G3" t="n">
-        <v>2154.95</v>
+        <v>5693.52</v>
       </c>
     </row>
     <row r="4">
@@ -7110,19 +6848,19 @@
         <v>32600</v>
       </c>
       <c r="C4" t="n">
-        <v>157.59</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>31.55</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>65.22</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>291.48</v>
+        <v>1884.53</v>
       </c>
       <c r="G4" t="n">
-        <v>2040.36</v>
+        <v>13191.71</v>
       </c>
     </row>
     <row r="5">
@@ -7135,19 +6873,19 @@
         <v>7600</v>
       </c>
       <c r="C5" t="n">
-        <v>180.49</v>
+        <v>174.98</v>
       </c>
       <c r="D5" t="n">
-        <v>46.86</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>67.44</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>337.65</v>
+        <v>629.86</v>
       </c>
       <c r="G5" t="n">
-        <v>2363.55</v>
+        <v>4409.02</v>
       </c>
     </row>
     <row r="6">
@@ -7160,19 +6898,19 @@
         <v>12500</v>
       </c>
       <c r="C6" t="n">
-        <v>166.65</v>
+        <v>163.94</v>
       </c>
       <c r="D6" t="n">
-        <v>40.03</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>68.13</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>315.53</v>
+        <v>547.3099999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>2208.71</v>
+        <v>3831.17</v>
       </c>
     </row>
     <row r="7">
@@ -7185,19 +6923,19 @@
         <v>90170</v>
       </c>
       <c r="C7" t="n">
-        <v>173.7122025063769</v>
+        <v>91.14424087834091</v>
       </c>
       <c r="D7" t="n">
-        <v>37.20461905290008</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>57.27543196184984</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>306.9266662969945</v>
+        <v>1153.163681934124</v>
       </c>
       <c r="G7" t="n">
-        <v>2148.486664078962</v>
+        <v>8072.14577353887</v>
       </c>
     </row>
   </sheetData>
@@ -7285,7 +7023,9 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
@@ -7661,7 +7401,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -7889,7 +7629,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -9941,7 +9681,7 @@
         <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -10055,7 +9795,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -10830,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -10842,7 +10582,7 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>268</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96">
@@ -10856,19 +10596,19 @@
         <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>161.9</v>
+        <v>81</v>
       </c>
       <c r="E96" t="n">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="F96" t="n">
-        <v>161.9</v>
+        <v>81</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -10880,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>268</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97">
@@ -10894,13 +10634,13 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>161.9</v>
+        <v>81</v>
       </c>
       <c r="E97" t="n">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="F97" t="n">
-        <v>161.9</v>
+        <v>81</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -10932,19 +10672,19 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>161.9</v>
+        <v>81</v>
       </c>
       <c r="E98" t="n">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="F98" t="n">
-        <v>161.9</v>
+        <v>81</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -10956,7 +10696,7 @@
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>278</v>
+        <v>342</v>
       </c>
     </row>
     <row r="99">
@@ -10970,19 +10710,19 @@
         <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>113.3</v>
+        <v>129.5</v>
       </c>
       <c r="E99" t="n">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="F99" t="n">
-        <v>275.2</v>
+        <v>210.5</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -10994,7 +10734,7 @@
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>278</v>
+        <v>342</v>
       </c>
     </row>
     <row r="100">
@@ -11008,13 +10748,13 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>113.3</v>
+        <v>129.5</v>
       </c>
       <c r="E100" t="n">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="F100" t="n">
-        <v>275.2</v>
+        <v>210.5</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -11046,22 +10786,22 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>113.3</v>
+        <v>129.5</v>
       </c>
       <c r="E101" t="n">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="F101" t="n">
-        <v>275.2</v>
+        <v>210.5</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="H101" t="n">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -11070,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>351</v>
       </c>
     </row>
     <row r="102">
@@ -11078,28 +10818,28 @@
         <v>34</v>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D102" t="n">
-        <v>1457.2</v>
+        <v>161.9</v>
       </c>
       <c r="E102" t="n">
-        <v>1732</v>
+        <v>372</v>
       </c>
       <c r="F102" t="n">
-        <v>1732.4</v>
+        <v>372.4</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="H102" t="n">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -11108,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>351</v>
       </c>
     </row>
     <row r="103">
@@ -11122,13 +10862,13 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>1457.2</v>
+        <v>161.9</v>
       </c>
       <c r="E103" t="n">
-        <v>1732</v>
+        <v>372</v>
       </c>
       <c r="F103" t="n">
-        <v>1732.4</v>
+        <v>372.4</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -11160,19 +10900,19 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>1457.2</v>
+        <v>161.9</v>
       </c>
       <c r="E104" t="n">
-        <v>1732</v>
+        <v>372</v>
       </c>
       <c r="F104" t="n">
-        <v>1732.4</v>
+        <v>372.4</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="H104" t="n">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -11184,7 +10924,7 @@
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>286</v>
+        <v>354</v>
       </c>
     </row>
     <row r="105">
@@ -11192,25 +10932,25 @@
         <v>35</v>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
         <v>4</v>
       </c>
       <c r="D105" t="n">
-        <v>81</v>
+        <v>404.8</v>
       </c>
       <c r="E105" t="n">
-        <v>1813</v>
+        <v>777</v>
       </c>
       <c r="F105" t="n">
-        <v>1813.4</v>
+        <v>777.2</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="H105" t="n">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -11222,7 +10962,7 @@
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>286</v>
+        <v>354</v>
       </c>
     </row>
     <row r="106">
@@ -11236,13 +10976,13 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>81</v>
+        <v>404.8</v>
       </c>
       <c r="E106" t="n">
-        <v>1813</v>
+        <v>777</v>
       </c>
       <c r="F106" t="n">
-        <v>1813.4</v>
+        <v>777.2</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -11274,19 +11014,19 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>81</v>
+        <v>404.8</v>
       </c>
       <c r="E107" t="n">
-        <v>1813</v>
+        <v>777</v>
       </c>
       <c r="F107" t="n">
-        <v>1813.4</v>
+        <v>777.2</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="H107" t="n">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -11298,7 +11038,7 @@
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>287</v>
+        <v>362</v>
       </c>
     </row>
     <row r="108">
@@ -11306,25 +11046,25 @@
         <v>36</v>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
         <v>4</v>
       </c>
       <c r="D108" t="n">
-        <v>161.9</v>
+        <v>129.5</v>
       </c>
       <c r="E108" t="n">
-        <v>1975</v>
+        <v>907</v>
       </c>
       <c r="F108" t="n">
-        <v>1975.3</v>
+        <v>906.7</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="H108" t="n">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -11336,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>287</v>
+        <v>362</v>
       </c>
     </row>
     <row r="109">
@@ -11350,13 +11090,13 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>161.9</v>
+        <v>129.5</v>
       </c>
       <c r="E109" t="n">
-        <v>1975</v>
+        <v>907</v>
       </c>
       <c r="F109" t="n">
-        <v>1975.3</v>
+        <v>906.7</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -11388,31 +11128,31 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>161.9</v>
+        <v>129.5</v>
       </c>
       <c r="E110" t="n">
-        <v>1975</v>
+        <v>907</v>
       </c>
       <c r="F110" t="n">
-        <v>1975.3</v>
+        <v>906.7</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>289</v>
+        <v>366</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>366</v>
       </c>
     </row>
     <row r="111">
@@ -11423,34 +11163,34 @@
         <v>2</v>
       </c>
       <c r="C111" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D111" t="n">
-        <v>971.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>2947</v>
+        <v>1004</v>
       </c>
       <c r="F111" t="n">
-        <v>2946.8</v>
+        <v>1003.8</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>289</v>
+        <v>366</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="K111" t="n">
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>366</v>
       </c>
     </row>
     <row r="112">
@@ -11464,13 +11204,13 @@
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>971.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>2947</v>
+        <v>1004</v>
       </c>
       <c r="F112" t="n">
-        <v>2946.8</v>
+        <v>1003.8</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -11502,22 +11242,22 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>971.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>2947</v>
+        <v>1004</v>
       </c>
       <c r="F113" t="n">
-        <v>2946.8</v>
+        <v>1003.8</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>290</v>
+        <v>366</v>
       </c>
       <c r="I113" t="n">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -11526,7 +11266,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>366</v>
       </c>
     </row>
     <row r="114">
@@ -11537,25 +11277,25 @@
         <v>2</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D114" t="n">
-        <v>647.7</v>
+        <v>81</v>
       </c>
       <c r="E114" t="n">
-        <v>3594</v>
+        <v>1085</v>
       </c>
       <c r="F114" t="n">
-        <v>3594.5</v>
+        <v>1084.8</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>290</v>
+        <v>366</v>
       </c>
       <c r="I114" t="n">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -11564,7 +11304,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>0</v>
+        <v>366</v>
       </c>
     </row>
     <row r="115">
@@ -11578,13 +11318,13 @@
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>647.7</v>
+        <v>81</v>
       </c>
       <c r="E115" t="n">
-        <v>3594</v>
+        <v>1085</v>
       </c>
       <c r="F115" t="n">
-        <v>3594.5</v>
+        <v>1084.8</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -11616,31 +11356,31 @@
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>647.7</v>
+        <v>81</v>
       </c>
       <c r="E116" t="n">
-        <v>3594</v>
+        <v>1085</v>
       </c>
       <c r="F116" t="n">
-        <v>3594.5</v>
+        <v>1084.8</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="H116" t="n">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>387</v>
       </c>
     </row>
     <row r="117">
@@ -11648,37 +11388,37 @@
         <v>39</v>
       </c>
       <c r="B117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D117" t="n">
-        <v>561.8</v>
+        <v>161.9</v>
       </c>
       <c r="E117" t="n">
-        <v>4156</v>
+        <v>1247</v>
       </c>
       <c r="F117" t="n">
-        <v>4156.3</v>
+        <v>1246.7</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="H117" t="n">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="K117" t="n">
         <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>387</v>
       </c>
     </row>
     <row r="118">
@@ -11692,13 +11432,13 @@
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>561.8</v>
+        <v>161.9</v>
       </c>
       <c r="E118" t="n">
-        <v>4156</v>
+        <v>1247</v>
       </c>
       <c r="F118" t="n">
-        <v>4156.3</v>
+        <v>1246.7</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -11730,16 +11470,16 @@
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>561.8</v>
+        <v>161.9</v>
       </c>
       <c r="E119" t="n">
-        <v>4156</v>
+        <v>1247</v>
       </c>
       <c r="F119" t="n">
-        <v>4156.3</v>
+        <v>1246.7</v>
       </c>
       <c r="G119" t="n">
-        <v>292</v>
+        <v>503</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -11751,10 +11491,10 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>503</v>
       </c>
     </row>
     <row r="120">
@@ -11765,19 +11505,19 @@
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D120" t="n">
-        <v>323.8</v>
+        <v>356.2</v>
       </c>
       <c r="E120" t="n">
-        <v>4480</v>
+        <v>1603</v>
       </c>
       <c r="F120" t="n">
-        <v>4480.1</v>
+        <v>1602.9</v>
       </c>
       <c r="G120" t="n">
-        <v>292</v>
+        <v>503</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -11789,10 +11529,10 @@
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>503</v>
       </c>
     </row>
     <row r="121">
@@ -11806,13 +11546,13 @@
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>323.8</v>
+        <v>356.2</v>
       </c>
       <c r="E121" t="n">
-        <v>4480</v>
+        <v>1603</v>
       </c>
       <c r="F121" t="n">
-        <v>4480.1</v>
+        <v>1602.9</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -11844,19 +11584,19 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>323.8</v>
+        <v>356.2</v>
       </c>
       <c r="E122" t="n">
-        <v>4480</v>
+        <v>1603</v>
       </c>
       <c r="F122" t="n">
-        <v>4480.1</v>
+        <v>1602.9</v>
       </c>
       <c r="G122" t="n">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>506</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -11865,10 +11605,10 @@
         <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>506</v>
       </c>
     </row>
     <row r="123">
@@ -11876,25 +11616,25 @@
         <v>41</v>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C123" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D123" t="n">
-        <v>323.8</v>
+        <v>388.6</v>
       </c>
       <c r="E123" t="n">
-        <v>4804</v>
+        <v>1992</v>
       </c>
       <c r="F123" t="n">
-        <v>4803.9</v>
+        <v>1991.5</v>
       </c>
       <c r="G123" t="n">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>506</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -11903,10 +11643,10 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
-        <v>0</v>
+        <v>506</v>
       </c>
     </row>
     <row r="124">
@@ -11920,13 +11660,13 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>323.8</v>
+        <v>388.6</v>
       </c>
       <c r="E124" t="n">
-        <v>4804</v>
+        <v>1992</v>
       </c>
       <c r="F124" t="n">
-        <v>4803.9</v>
+        <v>1991.5</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -11958,22 +11698,22 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>323.8</v>
+        <v>388.6</v>
       </c>
       <c r="E125" t="n">
-        <v>4804</v>
+        <v>1992</v>
       </c>
       <c r="F125" t="n">
-        <v>4803.9</v>
+        <v>1991.5</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="H125" t="n">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -11982,7 +11722,7 @@
         <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>519</v>
       </c>
     </row>
     <row r="126">
@@ -11990,28 +11730,28 @@
         <v>42</v>
       </c>
       <c r="B126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D126" t="n">
-        <v>485.7</v>
+        <v>323.8</v>
       </c>
       <c r="E126" t="n">
-        <v>5290</v>
+        <v>2315</v>
       </c>
       <c r="F126" t="n">
-        <v>5289.6</v>
+        <v>2315.3</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="H126" t="n">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -12020,7 +11760,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>0</v>
+        <v>519</v>
       </c>
     </row>
     <row r="127">
@@ -12034,13 +11774,13 @@
         <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>485.7</v>
+        <v>323.8</v>
       </c>
       <c r="E127" t="n">
-        <v>5290</v>
+        <v>2315</v>
       </c>
       <c r="F127" t="n">
-        <v>5289.6</v>
+        <v>2315.3</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -12072,19 +11812,19 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>485.7</v>
+        <v>323.8</v>
       </c>
       <c r="E128" t="n">
-        <v>5290</v>
+        <v>2315</v>
       </c>
       <c r="F128" t="n">
-        <v>5289.6</v>
+        <v>2315.3</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>299</v>
+        <v>521</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -12096,7 +11836,7 @@
         <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>299</v>
+        <v>521</v>
       </c>
     </row>
     <row r="129">
@@ -12110,19 +11850,19 @@
         <v>4</v>
       </c>
       <c r="D129" t="n">
-        <v>340</v>
+        <v>161.9</v>
       </c>
       <c r="E129" t="n">
-        <v>5630</v>
+        <v>2477</v>
       </c>
       <c r="F129" t="n">
-        <v>5629.6</v>
+        <v>2477.2</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>299</v>
+        <v>521</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -12134,7 +11874,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>299</v>
+        <v>521</v>
       </c>
     </row>
     <row r="130">
@@ -12148,13 +11888,13 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>340</v>
+        <v>161.9</v>
       </c>
       <c r="E130" t="n">
-        <v>5630</v>
+        <v>2477</v>
       </c>
       <c r="F130" t="n">
-        <v>5629.6</v>
+        <v>2477.2</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -12186,31 +11926,31 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>340</v>
+        <v>161.9</v>
       </c>
       <c r="E131" t="n">
-        <v>5630</v>
+        <v>2477</v>
       </c>
       <c r="F131" t="n">
-        <v>5629.6</v>
+        <v>2477.2</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>299</v>
+        <v>526</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>526</v>
       </c>
     </row>
     <row r="132">
@@ -12221,34 +11961,34 @@
         <v>2</v>
       </c>
       <c r="C132" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D132" t="n">
-        <v>453.4</v>
+        <v>32.4</v>
       </c>
       <c r="E132" t="n">
-        <v>6083</v>
+        <v>2510</v>
       </c>
       <c r="F132" t="n">
-        <v>6083</v>
+        <v>2509.6</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>299</v>
+        <v>526</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>526</v>
       </c>
     </row>
     <row r="133">
@@ -12262,13 +12002,13 @@
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>453.4</v>
+        <v>32.4</v>
       </c>
       <c r="E133" t="n">
-        <v>6083</v>
+        <v>2510</v>
       </c>
       <c r="F133" t="n">
-        <v>6083</v>
+        <v>2509.6</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -12300,19 +12040,19 @@
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>453.4</v>
+        <v>32.4</v>
       </c>
       <c r="E134" t="n">
-        <v>6083</v>
+        <v>2510</v>
       </c>
       <c r="F134" t="n">
-        <v>6083</v>
+        <v>2509.6</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>300</v>
+        <v>535</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -12324,7 +12064,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>300</v>
+        <v>535</v>
       </c>
     </row>
     <row r="135">
@@ -12338,19 +12078,19 @@
         <v>4</v>
       </c>
       <c r="D135" t="n">
-        <v>113.3</v>
+        <v>32.4</v>
       </c>
       <c r="E135" t="n">
-        <v>6196</v>
+        <v>2542</v>
       </c>
       <c r="F135" t="n">
-        <v>6196.3</v>
+        <v>2542</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>300</v>
+        <v>535</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -12362,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="L135" t="n">
-        <v>300</v>
+        <v>535</v>
       </c>
     </row>
     <row r="136">
@@ -12376,13 +12116,13 @@
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>113.3</v>
+        <v>32.4</v>
       </c>
       <c r="E136" t="n">
-        <v>6196</v>
+        <v>2542</v>
       </c>
       <c r="F136" t="n">
-        <v>6196.3</v>
+        <v>2542</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -12414,22 +12154,22 @@
         <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>113.3</v>
+        <v>32.4</v>
       </c>
       <c r="E137" t="n">
-        <v>6196</v>
+        <v>2542</v>
       </c>
       <c r="F137" t="n">
-        <v>6196.3</v>
+        <v>2542</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>301</v>
+        <v>539</v>
       </c>
       <c r="I137" t="n">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
@@ -12438,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>0</v>
+        <v>539</v>
       </c>
     </row>
     <row r="138">
@@ -12449,25 +12189,25 @@
         <v>2</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D138" t="n">
-        <v>323.8</v>
+        <v>161.9</v>
       </c>
       <c r="E138" t="n">
-        <v>6520</v>
+        <v>2704</v>
       </c>
       <c r="F138" t="n">
-        <v>6520.1</v>
+        <v>2703.9</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>301</v>
+        <v>539</v>
       </c>
       <c r="I138" t="n">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
@@ -12476,7 +12216,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>0</v>
+        <v>539</v>
       </c>
     </row>
     <row r="139">
@@ -12490,13 +12230,13 @@
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>323.8</v>
+        <v>161.9</v>
       </c>
       <c r="E139" t="n">
-        <v>6520</v>
+        <v>2704</v>
       </c>
       <c r="F139" t="n">
-        <v>6520.1</v>
+        <v>2703.9</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -12528,19 +12268,19 @@
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>323.8</v>
+        <v>161.9</v>
       </c>
       <c r="E140" t="n">
-        <v>6520</v>
+        <v>2704</v>
       </c>
       <c r="F140" t="n">
-        <v>6520.1</v>
+        <v>2703.9</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>301</v>
+        <v>540</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -12552,7 +12292,7 @@
         <v>0</v>
       </c>
       <c r="L140" t="n">
-        <v>301</v>
+        <v>540</v>
       </c>
     </row>
     <row r="141">
@@ -12566,19 +12306,19 @@
         <v>4</v>
       </c>
       <c r="D141" t="n">
-        <v>161.9</v>
+        <v>32.4</v>
       </c>
       <c r="E141" t="n">
-        <v>6682</v>
+        <v>2736</v>
       </c>
       <c r="F141" t="n">
-        <v>6682</v>
+        <v>2736.3</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>301</v>
+        <v>540</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -12590,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="L141" t="n">
-        <v>301</v>
+        <v>540</v>
       </c>
     </row>
     <row r="142">
@@ -12604,13 +12344,13 @@
         <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>161.9</v>
+        <v>32.4</v>
       </c>
       <c r="E142" t="n">
-        <v>6682</v>
+        <v>2736</v>
       </c>
       <c r="F142" t="n">
-        <v>6682</v>
+        <v>2736.3</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -12642,31 +12382,31 @@
         <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>161.9</v>
+        <v>32.4</v>
       </c>
       <c r="E143" t="n">
-        <v>6682</v>
+        <v>2736</v>
       </c>
       <c r="F143" t="n">
-        <v>6682</v>
+        <v>2736.3</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>303</v>
+        <v>542</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="K143" t="n">
         <v>0</v>
       </c>
       <c r="L143" t="n">
-        <v>0</v>
+        <v>542</v>
       </c>
     </row>
     <row r="144">
@@ -12677,34 +12417,34 @@
         <v>2</v>
       </c>
       <c r="C144" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D144" t="n">
-        <v>323.8</v>
+        <v>32.4</v>
       </c>
       <c r="E144" t="n">
-        <v>7006</v>
+        <v>2769</v>
       </c>
       <c r="F144" t="n">
-        <v>7005.8</v>
+        <v>2768.7</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>303</v>
+        <v>542</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="K144" t="n">
         <v>0</v>
       </c>
       <c r="L144" t="n">
-        <v>0</v>
+        <v>542</v>
       </c>
     </row>
     <row r="145">
@@ -12718,13 +12458,13 @@
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>323.8</v>
+        <v>32.4</v>
       </c>
       <c r="E145" t="n">
-        <v>7006</v>
+        <v>2769</v>
       </c>
       <c r="F145" t="n">
-        <v>7005.8</v>
+        <v>2768.7</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -12756,16 +12496,16 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>323.8</v>
+        <v>32.4</v>
       </c>
       <c r="E146" t="n">
-        <v>7006</v>
+        <v>2769</v>
       </c>
       <c r="F146" t="n">
-        <v>7005.8</v>
+        <v>2768.7</v>
       </c>
       <c r="G146" t="n">
-        <v>304</v>
+        <v>644</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -12780,7 +12520,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="n">
-        <v>304</v>
+        <v>644</v>
       </c>
     </row>
     <row r="147">
@@ -12794,16 +12534,16 @@
         <v>4</v>
       </c>
       <c r="D147" t="n">
-        <v>323.8</v>
+        <v>48.6</v>
       </c>
       <c r="E147" t="n">
-        <v>7330</v>
+        <v>2817</v>
       </c>
       <c r="F147" t="n">
-        <v>7329.6</v>
+        <v>2817.3</v>
       </c>
       <c r="G147" t="n">
-        <v>304</v>
+        <v>644</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -12818,7 +12558,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="n">
-        <v>304</v>
+        <v>644</v>
       </c>
     </row>
     <row r="148">
@@ -12832,13 +12572,13 @@
         <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>323.8</v>
+        <v>48.6</v>
       </c>
       <c r="E148" t="n">
-        <v>7330</v>
+        <v>2817</v>
       </c>
       <c r="F148" t="n">
-        <v>7329.6</v>
+        <v>2817.3</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -12870,19 +12610,19 @@
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>323.8</v>
+        <v>48.6</v>
       </c>
       <c r="E149" t="n">
-        <v>7330</v>
+        <v>2817</v>
       </c>
       <c r="F149" t="n">
-        <v>7329.6</v>
+        <v>2817.3</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>305</v>
+        <v>675</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -12894,7 +12634,7 @@
         <v>0</v>
       </c>
       <c r="L149" t="n">
-        <v>305</v>
+        <v>675</v>
       </c>
     </row>
     <row r="150">
@@ -12908,19 +12648,19 @@
         <v>4</v>
       </c>
       <c r="D150" t="n">
-        <v>372.4</v>
+        <v>161.9</v>
       </c>
       <c r="E150" t="n">
-        <v>7702</v>
+        <v>2979</v>
       </c>
       <c r="F150" t="n">
-        <v>7702</v>
+        <v>2979.2</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>305</v>
+        <v>675</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -12932,7 +12672,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="n">
-        <v>305</v>
+        <v>675</v>
       </c>
     </row>
     <row r="151">
@@ -12946,13 +12686,13 @@
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>372.4</v>
+        <v>161.9</v>
       </c>
       <c r="E151" t="n">
-        <v>7702</v>
+        <v>2979</v>
       </c>
       <c r="F151" t="n">
-        <v>7702</v>
+        <v>2979.2</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -12984,19 +12724,19 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>372.4</v>
+        <v>161.9</v>
       </c>
       <c r="E152" t="n">
-        <v>7702</v>
+        <v>2979</v>
       </c>
       <c r="F152" t="n">
-        <v>7702</v>
+        <v>2979.2</v>
       </c>
       <c r="G152" t="n">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>679</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -13008,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="L152" t="n">
-        <v>305</v>
+        <v>679</v>
       </c>
     </row>
     <row r="153">
@@ -13016,25 +12756,25 @@
         <v>51</v>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C153" t="n">
         <v>4</v>
       </c>
       <c r="D153" t="n">
-        <v>145.7</v>
+        <v>64.8</v>
       </c>
       <c r="E153" t="n">
-        <v>7848</v>
+        <v>3044</v>
       </c>
       <c r="F153" t="n">
-        <v>7847.7</v>
+        <v>3044</v>
       </c>
       <c r="G153" t="n">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>679</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -13046,7 +12786,7 @@
         <v>0</v>
       </c>
       <c r="L153" t="n">
-        <v>305</v>
+        <v>679</v>
       </c>
     </row>
     <row r="154">
@@ -13060,13 +12800,13 @@
         <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>145.7</v>
+        <v>64.8</v>
       </c>
       <c r="E154" t="n">
-        <v>7848</v>
+        <v>3044</v>
       </c>
       <c r="F154" t="n">
-        <v>7847.7</v>
+        <v>3044</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -13098,19 +12838,19 @@
         <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>145.7</v>
+        <v>64.8</v>
       </c>
       <c r="E155" t="n">
-        <v>7848</v>
+        <v>3044</v>
       </c>
       <c r="F155" t="n">
-        <v>7847.7</v>
+        <v>3044</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>305</v>
+        <v>683</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -13122,7 +12862,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="n">
-        <v>305</v>
+        <v>683</v>
       </c>
     </row>
     <row r="156">
@@ -13136,19 +12876,19 @@
         <v>4</v>
       </c>
       <c r="D156" t="n">
-        <v>97.09999999999999</v>
+        <v>372.4</v>
       </c>
       <c r="E156" t="n">
-        <v>7945</v>
+        <v>3416</v>
       </c>
       <c r="F156" t="n">
-        <v>7944.8</v>
+        <v>3416.4</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>305</v>
+        <v>683</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -13160,7 +12900,7 @@
         <v>0</v>
       </c>
       <c r="L156" t="n">
-        <v>305</v>
+        <v>683</v>
       </c>
     </row>
     <row r="157">
@@ -13174,13 +12914,13 @@
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>97.09999999999999</v>
+        <v>372.4</v>
       </c>
       <c r="E157" t="n">
-        <v>7945</v>
+        <v>3416</v>
       </c>
       <c r="F157" t="n">
-        <v>7944.8</v>
+        <v>3416.4</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -13212,19 +12952,19 @@
         <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>97.09999999999999</v>
+        <v>372.4</v>
       </c>
       <c r="E158" t="n">
-        <v>7945</v>
+        <v>3416</v>
       </c>
       <c r="F158" t="n">
-        <v>7944.8</v>
+        <v>3416.4</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>305</v>
+        <v>773</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -13236,7 +12976,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="n">
-        <v>305</v>
+        <v>773</v>
       </c>
     </row>
     <row r="159">
@@ -13250,19 +12990,19 @@
         <v>4</v>
       </c>
       <c r="D159" t="n">
-        <v>81</v>
+        <v>113.3</v>
       </c>
       <c r="E159" t="n">
-        <v>8026</v>
+        <v>3530</v>
       </c>
       <c r="F159" t="n">
-        <v>8025.8</v>
+        <v>3529.7</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>305</v>
+        <v>773</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -13274,7 +13014,7 @@
         <v>0</v>
       </c>
       <c r="L159" t="n">
-        <v>305</v>
+        <v>773</v>
       </c>
     </row>
     <row r="160">
@@ -13288,13 +13028,13 @@
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>81</v>
+        <v>113.3</v>
       </c>
       <c r="E160" t="n">
-        <v>8026</v>
+        <v>3530</v>
       </c>
       <c r="F160" t="n">
-        <v>8025.8</v>
+        <v>3529.7</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -13326,19 +13066,19 @@
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>81</v>
+        <v>113.3</v>
       </c>
       <c r="E161" t="n">
-        <v>8026</v>
+        <v>3530</v>
       </c>
       <c r="F161" t="n">
-        <v>8025.8</v>
+        <v>3529.7</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>306</v>
+        <v>790</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -13350,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="L161" t="n">
-        <v>306</v>
+        <v>790</v>
       </c>
     </row>
     <row r="162">
@@ -13364,19 +13104,19 @@
         <v>4</v>
       </c>
       <c r="D162" t="n">
-        <v>161.9</v>
+        <v>340</v>
       </c>
       <c r="E162" t="n">
-        <v>8188</v>
+        <v>3870</v>
       </c>
       <c r="F162" t="n">
-        <v>8187.7</v>
+        <v>3869.7</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>306</v>
+        <v>790</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -13388,7 +13128,7 @@
         <v>0</v>
       </c>
       <c r="L162" t="n">
-        <v>306</v>
+        <v>790</v>
       </c>
     </row>
     <row r="163">
@@ -13402,13 +13142,13 @@
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>161.9</v>
+        <v>340</v>
       </c>
       <c r="E163" t="n">
-        <v>8188</v>
+        <v>3870</v>
       </c>
       <c r="F163" t="n">
-        <v>8187.7</v>
+        <v>3869.7</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -13440,16 +13180,16 @@
         <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>161.9</v>
+        <v>340</v>
       </c>
       <c r="E164" t="n">
-        <v>8188</v>
+        <v>3870</v>
       </c>
       <c r="F164" t="n">
-        <v>8187.7</v>
+        <v>3869.7</v>
       </c>
       <c r="G164" t="n">
-        <v>306</v>
+        <v>793</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -13464,7 +13204,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="n">
-        <v>306</v>
+        <v>793</v>
       </c>
     </row>
     <row r="165">
@@ -13478,16 +13218,16 @@
         <v>4</v>
       </c>
       <c r="D165" t="n">
-        <v>129.5</v>
+        <v>323.8</v>
       </c>
       <c r="E165" t="n">
-        <v>8317</v>
+        <v>4194</v>
       </c>
       <c r="F165" t="n">
-        <v>8317.200000000001</v>
+        <v>4193.5</v>
       </c>
       <c r="G165" t="n">
-        <v>306</v>
+        <v>793</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -13502,7 +13242,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="n">
-        <v>306</v>
+        <v>793</v>
       </c>
     </row>
     <row r="166">
@@ -13516,13 +13256,13 @@
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>129.5</v>
+        <v>323.8</v>
       </c>
       <c r="E166" t="n">
-        <v>8317</v>
+        <v>4194</v>
       </c>
       <c r="F166" t="n">
-        <v>8317.200000000001</v>
+        <v>4193.5</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -13554,16 +13294,16 @@
         <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>129.5</v>
+        <v>323.8</v>
       </c>
       <c r="E167" t="n">
-        <v>8317</v>
+        <v>4194</v>
       </c>
       <c r="F167" t="n">
-        <v>8317.200000000001</v>
+        <v>4193.5</v>
       </c>
       <c r="G167" t="n">
-        <v>307</v>
+        <v>793</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -13575,10 +13315,10 @@
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
-        <v>0</v>
+        <v>793</v>
       </c>
     </row>
     <row r="168">
@@ -13589,19 +13329,19 @@
         <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D168" t="n">
-        <v>404.8</v>
+        <v>242.9</v>
       </c>
       <c r="E168" t="n">
-        <v>8722</v>
+        <v>4436</v>
       </c>
       <c r="F168" t="n">
-        <v>8722</v>
+        <v>4436.4</v>
       </c>
       <c r="G168" t="n">
-        <v>307</v>
+        <v>793</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -13613,10 +13353,10 @@
         <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
-        <v>0</v>
+        <v>793</v>
       </c>
     </row>
     <row r="169">
@@ -13630,13 +13370,13 @@
         <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>404.8</v>
+        <v>242.9</v>
       </c>
       <c r="E169" t="n">
-        <v>8722</v>
+        <v>4436</v>
       </c>
       <c r="F169" t="n">
-        <v>8722</v>
+        <v>4436.4</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -13668,19 +13408,19 @@
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>404.8</v>
+        <v>242.9</v>
       </c>
       <c r="E170" t="n">
-        <v>8722</v>
+        <v>4436</v>
       </c>
       <c r="F170" t="n">
-        <v>8722</v>
+        <v>4436.4</v>
       </c>
       <c r="G170" t="n">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>803</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -13689,10 +13429,10 @@
         <v>0</v>
       </c>
       <c r="K170" t="n">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="L170" t="n">
-        <v>0</v>
+        <v>803</v>
       </c>
     </row>
     <row r="171">
@@ -13700,25 +13440,25 @@
         <v>57</v>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C171" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D171" t="n">
-        <v>323.8</v>
+        <v>971.5</v>
       </c>
       <c r="E171" t="n">
-        <v>9046</v>
+        <v>5408</v>
       </c>
       <c r="F171" t="n">
-        <v>9045.799999999999</v>
+        <v>5407.9</v>
       </c>
       <c r="G171" t="n">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>803</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13727,10 +13467,10 @@
         <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
-        <v>0</v>
+        <v>803</v>
       </c>
     </row>
     <row r="172">
@@ -13744,13 +13484,13 @@
         <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>323.8</v>
+        <v>971.5</v>
       </c>
       <c r="E172" t="n">
-        <v>9046</v>
+        <v>5408</v>
       </c>
       <c r="F172" t="n">
-        <v>9045.799999999999</v>
+        <v>5407.9</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -13782,19 +13522,19 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>323.8</v>
+        <v>971.5</v>
       </c>
       <c r="E173" t="n">
-        <v>9046</v>
+        <v>5408</v>
       </c>
       <c r="F173" t="n">
-        <v>9045.799999999999</v>
+        <v>5407.9</v>
       </c>
       <c r="G173" t="n">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>803</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13803,10 +13543,10 @@
         <v>0</v>
       </c>
       <c r="K173" t="n">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
-        <v>0</v>
+        <v>803</v>
       </c>
     </row>
     <row r="174">
@@ -13814,25 +13554,25 @@
         <v>58</v>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C174" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D174" t="n">
-        <v>275.3</v>
+        <v>48.6</v>
       </c>
       <c r="E174" t="n">
-        <v>9321</v>
+        <v>5457</v>
       </c>
       <c r="F174" t="n">
-        <v>9321.1</v>
+        <v>5456.5</v>
       </c>
       <c r="G174" t="n">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>803</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13841,10 +13581,10 @@
         <v>0</v>
       </c>
       <c r="K174" t="n">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="L174" t="n">
-        <v>0</v>
+        <v>803</v>
       </c>
     </row>
     <row r="175">
@@ -13858,13 +13598,13 @@
         <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>275.3</v>
+        <v>48.6</v>
       </c>
       <c r="E175" t="n">
-        <v>9321</v>
+        <v>5457</v>
       </c>
       <c r="F175" t="n">
-        <v>9321.1</v>
+        <v>5456.5</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -13896,19 +13636,19 @@
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>275.3</v>
+        <v>48.6</v>
       </c>
       <c r="E176" t="n">
-        <v>9321</v>
+        <v>5457</v>
       </c>
       <c r="F176" t="n">
-        <v>9321.1</v>
+        <v>5456.5</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="H176" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13920,7 +13660,7 @@
         <v>0</v>
       </c>
       <c r="L176" t="n">
-        <v>315</v>
+        <v>804</v>
       </c>
     </row>
     <row r="177">
@@ -13928,25 +13668,25 @@
         <v>59</v>
       </c>
       <c r="B177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
         <v>4</v>
       </c>
       <c r="D177" t="n">
-        <v>161.9</v>
+        <v>113.3</v>
       </c>
       <c r="E177" t="n">
-        <v>9483</v>
+        <v>5570</v>
       </c>
       <c r="F177" t="n">
-        <v>9483</v>
+        <v>5569.8</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="H177" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13958,7 +13698,7 @@
         <v>0</v>
       </c>
       <c r="L177" t="n">
-        <v>315</v>
+        <v>804</v>
       </c>
     </row>
     <row r="178">
@@ -13972,13 +13712,13 @@
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>161.9</v>
+        <v>113.3</v>
       </c>
       <c r="E178" t="n">
-        <v>9483</v>
+        <v>5570</v>
       </c>
       <c r="F178" t="n">
-        <v>9483</v>
+        <v>5569.8</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
@@ -14010,19 +13750,19 @@
         <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>161.9</v>
+        <v>113.3</v>
       </c>
       <c r="E179" t="n">
-        <v>9483</v>
+        <v>5570</v>
       </c>
       <c r="F179" t="n">
-        <v>9483</v>
+        <v>5569.8</v>
       </c>
       <c r="G179" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -14031,10 +13771,10 @@
         <v>0</v>
       </c>
       <c r="K179" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
-        <v>0</v>
+        <v>807</v>
       </c>
     </row>
     <row r="180">
@@ -14042,25 +13782,25 @@
         <v>60</v>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C180" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D180" t="n">
-        <v>437.2</v>
+        <v>161.9</v>
       </c>
       <c r="E180" t="n">
-        <v>9920</v>
+        <v>5732</v>
       </c>
       <c r="F180" t="n">
-        <v>9920.200000000001</v>
+        <v>5731.7</v>
       </c>
       <c r="G180" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -14069,10 +13809,10 @@
         <v>0</v>
       </c>
       <c r="K180" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
-        <v>0</v>
+        <v>807</v>
       </c>
     </row>
     <row r="181">
@@ -14086,13 +13826,13 @@
         <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>437.2</v>
+        <v>161.9</v>
       </c>
       <c r="E181" t="n">
-        <v>9920</v>
+        <v>5732</v>
       </c>
       <c r="F181" t="n">
-        <v>9920.200000000001</v>
+        <v>5731.7</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -14124,19 +13864,19 @@
         <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>437.2</v>
+        <v>161.9</v>
       </c>
       <c r="E182" t="n">
-        <v>9920</v>
+        <v>5732</v>
       </c>
       <c r="F182" t="n">
-        <v>9920.200000000001</v>
+        <v>5731.7</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="H182" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -14148,7 +13888,7 @@
         <v>0</v>
       </c>
       <c r="L182" t="n">
-        <v>315</v>
+        <v>824</v>
       </c>
     </row>
     <row r="183">
@@ -14156,25 +13896,25 @@
         <v>61</v>
       </c>
       <c r="B183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C183" t="n">
         <v>4</v>
       </c>
       <c r="D183" t="n">
-        <v>32.4</v>
+        <v>145.7</v>
       </c>
       <c r="E183" t="n">
-        <v>9953</v>
+        <v>5877</v>
       </c>
       <c r="F183" t="n">
-        <v>9952.6</v>
+        <v>5877.4</v>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="H183" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -14186,7 +13926,7 @@
         <v>0</v>
       </c>
       <c r="L183" t="n">
-        <v>315</v>
+        <v>824</v>
       </c>
     </row>
     <row r="184">
@@ -14200,13 +13940,13 @@
         <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>32.4</v>
+        <v>145.7</v>
       </c>
       <c r="E184" t="n">
-        <v>9953</v>
+        <v>5877</v>
       </c>
       <c r="F184" t="n">
-        <v>9952.6</v>
+        <v>5877.4</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -14238,19 +13978,19 @@
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>32.4</v>
+        <v>145.7</v>
       </c>
       <c r="E185" t="n">
-        <v>9953</v>
+        <v>5877</v>
       </c>
       <c r="F185" t="n">
-        <v>9952.6</v>
+        <v>5877.4</v>
       </c>
       <c r="G185" t="n">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14259,10 +13999,10 @@
         <v>0</v>
       </c>
       <c r="K185" t="n">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
-        <v>0</v>
+        <v>824</v>
       </c>
     </row>
     <row r="186">
@@ -14270,25 +14010,25 @@
         <v>62</v>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C186" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D186" t="n">
-        <v>48.6</v>
+        <v>64.8</v>
       </c>
       <c r="E186" t="n">
-        <v>10001</v>
+        <v>5942</v>
       </c>
       <c r="F186" t="n">
-        <v>10001.2</v>
+        <v>5942.2</v>
       </c>
       <c r="G186" t="n">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14297,10 +14037,10 @@
         <v>0</v>
       </c>
       <c r="K186" t="n">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
-        <v>0</v>
+        <v>824</v>
       </c>
     </row>
     <row r="187">
@@ -14314,13 +14054,13 @@
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>48.6</v>
+        <v>64.8</v>
       </c>
       <c r="E187" t="n">
-        <v>10001</v>
+        <v>5942</v>
       </c>
       <c r="F187" t="n">
-        <v>10001.2</v>
+        <v>5942.2</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
@@ -14352,19 +14092,19 @@
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>48.6</v>
+        <v>64.8</v>
       </c>
       <c r="E188" t="n">
-        <v>10001</v>
+        <v>5942</v>
       </c>
       <c r="F188" t="n">
-        <v>10001.2</v>
+        <v>5942.2</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="H188" t="n">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14376,7 +14116,7 @@
         <v>0</v>
       </c>
       <c r="L188" t="n">
-        <v>317</v>
+        <v>824</v>
       </c>
     </row>
     <row r="189">
@@ -14384,25 +14124,25 @@
         <v>63</v>
       </c>
       <c r="B189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
         <v>4</v>
       </c>
       <c r="D189" t="n">
-        <v>64.8</v>
+        <v>437.2</v>
       </c>
       <c r="E189" t="n">
-        <v>10066</v>
+        <v>6379</v>
       </c>
       <c r="F189" t="n">
-        <v>10066</v>
+        <v>6379.4</v>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="H189" t="n">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14414,7 +14154,7 @@
         <v>0</v>
       </c>
       <c r="L189" t="n">
-        <v>317</v>
+        <v>824</v>
       </c>
     </row>
     <row r="190">
@@ -14428,13 +14168,13 @@
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>64.8</v>
+        <v>437.2</v>
       </c>
       <c r="E190" t="n">
-        <v>10066</v>
+        <v>6379</v>
       </c>
       <c r="F190" t="n">
-        <v>10066</v>
+        <v>6379.4</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
@@ -14466,19 +14206,19 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>64.8</v>
+        <v>437.2</v>
       </c>
       <c r="E191" t="n">
-        <v>10066</v>
+        <v>6379</v>
       </c>
       <c r="F191" t="n">
-        <v>10066</v>
+        <v>6379.4</v>
       </c>
       <c r="G191" t="n">
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>317</v>
+        <v>826</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14490,7 +14230,7 @@
         <v>0</v>
       </c>
       <c r="L191" t="n">
-        <v>317</v>
+        <v>826</v>
       </c>
     </row>
     <row r="192">
@@ -14504,19 +14244,19 @@
         <v>4</v>
       </c>
       <c r="D192" t="n">
-        <v>242.9</v>
+        <v>178.1</v>
       </c>
       <c r="E192" t="n">
-        <v>10309</v>
+        <v>6558</v>
       </c>
       <c r="F192" t="n">
-        <v>10308.9</v>
+        <v>6557.5</v>
       </c>
       <c r="G192" t="n">
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>317</v>
+        <v>826</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14528,7 +14268,7 @@
         <v>0</v>
       </c>
       <c r="L192" t="n">
-        <v>317</v>
+        <v>826</v>
       </c>
     </row>
     <row r="193">
@@ -14542,13 +14282,13 @@
         <v>0</v>
       </c>
       <c r="D193" t="n">
-        <v>242.9</v>
+        <v>178.1</v>
       </c>
       <c r="E193" t="n">
-        <v>10309</v>
+        <v>6558</v>
       </c>
       <c r="F193" t="n">
-        <v>10308.9</v>
+        <v>6557.5</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
@@ -14580,19 +14320,19 @@
         <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>242.9</v>
+        <v>178.1</v>
       </c>
       <c r="E194" t="n">
-        <v>10309</v>
+        <v>6558</v>
       </c>
       <c r="F194" t="n">
-        <v>10308.9</v>
+        <v>6557.5</v>
       </c>
       <c r="G194" t="n">
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>317</v>
+        <v>826</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14604,7 +14344,7 @@
         <v>0</v>
       </c>
       <c r="L194" t="n">
-        <v>317</v>
+        <v>826</v>
       </c>
     </row>
     <row r="195">
@@ -14618,19 +14358,19 @@
         <v>4</v>
       </c>
       <c r="D195" t="n">
-        <v>64.8</v>
+        <v>404.8</v>
       </c>
       <c r="E195" t="n">
-        <v>10374</v>
+        <v>6962</v>
       </c>
       <c r="F195" t="n">
-        <v>10373.7</v>
+        <v>6962.3</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>317</v>
+        <v>826</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14642,7 +14382,7 @@
         <v>0</v>
       </c>
       <c r="L195" t="n">
-        <v>317</v>
+        <v>826</v>
       </c>
     </row>
     <row r="196">
@@ -14656,13 +14396,13 @@
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>64.8</v>
+        <v>404.8</v>
       </c>
       <c r="E196" t="n">
-        <v>10374</v>
+        <v>6962</v>
       </c>
       <c r="F196" t="n">
-        <v>10373.7</v>
+        <v>6962.3</v>
       </c>
       <c r="G196" t="n">
         <v>0</v>
@@ -14694,19 +14434,19 @@
         <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>64.8</v>
+        <v>404.8</v>
       </c>
       <c r="E197" t="n">
-        <v>10374</v>
+        <v>6962</v>
       </c>
       <c r="F197" t="n">
-        <v>10373.7</v>
+        <v>6962.3</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>317</v>
+        <v>827</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14718,7 +14458,7 @@
         <v>0</v>
       </c>
       <c r="L197" t="n">
-        <v>317</v>
+        <v>827</v>
       </c>
     </row>
     <row r="198">
@@ -14732,19 +14472,19 @@
         <v>4</v>
       </c>
       <c r="D198" t="n">
-        <v>81</v>
+        <v>242.9</v>
       </c>
       <c r="E198" t="n">
-        <v>10455</v>
+        <v>7205</v>
       </c>
       <c r="F198" t="n">
-        <v>10454.7</v>
+        <v>7205.2</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>317</v>
+        <v>827</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14756,7 +14496,7 @@
         <v>0</v>
       </c>
       <c r="L198" t="n">
-        <v>317</v>
+        <v>827</v>
       </c>
     </row>
     <row r="199">
@@ -14770,13 +14510,13 @@
         <v>0</v>
       </c>
       <c r="D199" t="n">
-        <v>81</v>
+        <v>242.9</v>
       </c>
       <c r="E199" t="n">
-        <v>10455</v>
+        <v>7205</v>
       </c>
       <c r="F199" t="n">
-        <v>10454.7</v>
+        <v>7205.2</v>
       </c>
       <c r="G199" t="n">
         <v>0</v>
@@ -14808,19 +14548,19 @@
         <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>81</v>
+        <v>242.9</v>
       </c>
       <c r="E200" t="n">
-        <v>10455</v>
+        <v>7205</v>
       </c>
       <c r="F200" t="n">
-        <v>10454.7</v>
+        <v>7205.2</v>
       </c>
       <c r="G200" t="n">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>829</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14829,10 +14569,10 @@
         <v>0</v>
       </c>
       <c r="K200" t="n">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
-        <v>0</v>
+        <v>829</v>
       </c>
     </row>
     <row r="201">
@@ -14840,25 +14580,25 @@
         <v>67</v>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C201" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D201" t="n">
-        <v>242.9</v>
+        <v>81</v>
       </c>
       <c r="E201" t="n">
-        <v>10698</v>
+        <v>7286</v>
       </c>
       <c r="F201" t="n">
-        <v>10697.6</v>
+        <v>7286.2</v>
       </c>
       <c r="G201" t="n">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>829</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -14867,10 +14607,10 @@
         <v>0</v>
       </c>
       <c r="K201" t="n">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
-        <v>0</v>
+        <v>829</v>
       </c>
     </row>
     <row r="202">
@@ -14884,13 +14624,13 @@
         <v>0</v>
       </c>
       <c r="D202" t="n">
-        <v>242.9</v>
+        <v>81</v>
       </c>
       <c r="E202" t="n">
-        <v>10698</v>
+        <v>7286</v>
       </c>
       <c r="F202" t="n">
-        <v>10697.6</v>
+        <v>7286.2</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>
@@ -14922,31 +14662,31 @@
         <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>242.9</v>
+        <v>81</v>
       </c>
       <c r="E203" t="n">
-        <v>10698</v>
+        <v>7286</v>
       </c>
       <c r="F203" t="n">
-        <v>10697.6</v>
+        <v>7286.2</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="H203" t="n">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="K203" t="n">
         <v>0</v>
       </c>
       <c r="L203" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
     </row>
     <row r="204">
@@ -14954,37 +14694,37 @@
         <v>68</v>
       </c>
       <c r="B204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D204" t="n">
-        <v>178.1</v>
+        <v>323.8</v>
       </c>
       <c r="E204" t="n">
-        <v>10876</v>
+        <v>7610</v>
       </c>
       <c r="F204" t="n">
-        <v>10875.7</v>
+        <v>7610</v>
       </c>
       <c r="G204" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="H204" t="n">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="K204" t="n">
         <v>0</v>
       </c>
       <c r="L204" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
     </row>
     <row r="205">
@@ -14998,13 +14738,13 @@
         <v>0</v>
       </c>
       <c r="D205" t="n">
-        <v>178.1</v>
+        <v>323.8</v>
       </c>
       <c r="E205" t="n">
-        <v>10876</v>
+        <v>7610</v>
       </c>
       <c r="F205" t="n">
-        <v>10875.7</v>
+        <v>7610</v>
       </c>
       <c r="G205" t="n">
         <v>0</v>
@@ -15036,16 +14776,16 @@
         <v>0</v>
       </c>
       <c r="D206" t="n">
-        <v>178.1</v>
+        <v>323.8</v>
       </c>
       <c r="E206" t="n">
-        <v>10876</v>
+        <v>7610</v>
       </c>
       <c r="F206" t="n">
-        <v>10875.7</v>
+        <v>7610</v>
       </c>
       <c r="G206" t="n">
-        <v>318</v>
+        <v>831</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -15057,10 +14797,10 @@
         <v>0</v>
       </c>
       <c r="K206" t="n">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="L206" t="n">
-        <v>0</v>
+        <v>831</v>
       </c>
     </row>
     <row r="207">
@@ -15071,19 +14811,19 @@
         <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D207" t="n">
-        <v>194.3</v>
+        <v>323.8</v>
       </c>
       <c r="E207" t="n">
-        <v>11070</v>
+        <v>7934</v>
       </c>
       <c r="F207" t="n">
-        <v>11070</v>
+        <v>7933.8</v>
       </c>
       <c r="G207" t="n">
-        <v>318</v>
+        <v>831</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -15095,10 +14835,10 @@
         <v>0</v>
       </c>
       <c r="K207" t="n">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="L207" t="n">
-        <v>0</v>
+        <v>831</v>
       </c>
     </row>
     <row r="208">
@@ -15112,13 +14852,13 @@
         <v>0</v>
       </c>
       <c r="D208" t="n">
-        <v>194.3</v>
+        <v>323.8</v>
       </c>
       <c r="E208" t="n">
-        <v>11070</v>
+        <v>7934</v>
       </c>
       <c r="F208" t="n">
-        <v>11070</v>
+        <v>7933.8</v>
       </c>
       <c r="G208" t="n">
         <v>0</v>
@@ -15150,16 +14890,16 @@
         <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>194.3</v>
+        <v>323.8</v>
       </c>
       <c r="E209" t="n">
-        <v>11070</v>
+        <v>7934</v>
       </c>
       <c r="F209" t="n">
-        <v>11070</v>
+        <v>7933.8</v>
       </c>
       <c r="G209" t="n">
-        <v>320</v>
+        <v>832</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -15171,10 +14911,10 @@
         <v>0</v>
       </c>
       <c r="K209" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="L209" t="n">
-        <v>0</v>
+        <v>832</v>
       </c>
     </row>
     <row r="210">
@@ -15185,19 +14925,19 @@
         <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D210" t="n">
-        <v>129.5</v>
+        <v>48.6</v>
       </c>
       <c r="E210" t="n">
-        <v>11199</v>
+        <v>7982</v>
       </c>
       <c r="F210" t="n">
-        <v>11199.5</v>
+        <v>7982.4</v>
       </c>
       <c r="G210" t="n">
-        <v>320</v>
+        <v>832</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -15209,10 +14949,10 @@
         <v>0</v>
       </c>
       <c r="K210" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
-        <v>0</v>
+        <v>832</v>
       </c>
     </row>
     <row r="211">
@@ -15226,13 +14966,13 @@
         <v>0</v>
       </c>
       <c r="D211" t="n">
-        <v>129.5</v>
+        <v>48.6</v>
       </c>
       <c r="E211" t="n">
-        <v>11199</v>
+        <v>7982</v>
       </c>
       <c r="F211" t="n">
-        <v>11199.5</v>
+        <v>7982.4</v>
       </c>
       <c r="G211" t="n">
         <v>0</v>
@@ -15264,19 +15004,19 @@
         <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>129.5</v>
+        <v>48.6</v>
       </c>
       <c r="E212" t="n">
-        <v>11199</v>
+        <v>7982</v>
       </c>
       <c r="F212" t="n">
-        <v>11199.5</v>
+        <v>7982.4</v>
       </c>
       <c r="G212" t="n">
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>321</v>
+        <v>834</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15288,7 +15028,7 @@
         <v>0</v>
       </c>
       <c r="L212" t="n">
-        <v>321</v>
+        <v>834</v>
       </c>
     </row>
     <row r="213">
@@ -15302,19 +15042,19 @@
         <v>4</v>
       </c>
       <c r="D213" t="n">
-        <v>81</v>
+        <v>129.5</v>
       </c>
       <c r="E213" t="n">
-        <v>11280</v>
+        <v>8112</v>
       </c>
       <c r="F213" t="n">
-        <v>11280.5</v>
+        <v>8111.9</v>
       </c>
       <c r="G213" t="n">
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>321</v>
+        <v>834</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15326,7 +15066,7 @@
         <v>0</v>
       </c>
       <c r="L213" t="n">
-        <v>321</v>
+        <v>834</v>
       </c>
     </row>
     <row r="214">
@@ -15340,13 +15080,13 @@
         <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>81</v>
+        <v>129.5</v>
       </c>
       <c r="E214" t="n">
-        <v>11280</v>
+        <v>8112</v>
       </c>
       <c r="F214" t="n">
-        <v>11280.5</v>
+        <v>8111.9</v>
       </c>
       <c r="G214" t="n">
         <v>0</v>
@@ -15378,19 +15118,19 @@
         <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>81</v>
+        <v>129.5</v>
       </c>
       <c r="E215" t="n">
-        <v>11280</v>
+        <v>8112</v>
       </c>
       <c r="F215" t="n">
-        <v>11280.5</v>
+        <v>8111.9</v>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="H215" t="n">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -15402,7 +15142,7 @@
         <v>0</v>
       </c>
       <c r="L215" t="n">
-        <v>321</v>
+        <v>835</v>
       </c>
     </row>
     <row r="216">
@@ -15410,25 +15150,25 @@
         <v>72</v>
       </c>
       <c r="B216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C216" t="n">
         <v>4</v>
       </c>
       <c r="D216" t="n">
-        <v>404.8</v>
+        <v>275.3</v>
       </c>
       <c r="E216" t="n">
-        <v>11685</v>
+        <v>8387</v>
       </c>
       <c r="F216" t="n">
-        <v>11685.3</v>
+        <v>8387.200000000001</v>
       </c>
       <c r="G216" t="n">
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="H216" t="n">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -15440,7 +15180,7 @@
         <v>0</v>
       </c>
       <c r="L216" t="n">
-        <v>321</v>
+        <v>835</v>
       </c>
     </row>
     <row r="217">
@@ -15454,13 +15194,13 @@
         <v>0</v>
       </c>
       <c r="D217" t="n">
-        <v>404.8</v>
+        <v>275.3</v>
       </c>
       <c r="E217" t="n">
-        <v>11685</v>
+        <v>8387</v>
       </c>
       <c r="F217" t="n">
-        <v>11685.3</v>
+        <v>8387.200000000001</v>
       </c>
       <c r="G217" t="n">
         <v>0</v>
@@ -15492,19 +15232,19 @@
         <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>404.8</v>
+        <v>275.3</v>
       </c>
       <c r="E218" t="n">
-        <v>11685</v>
+        <v>8387</v>
       </c>
       <c r="F218" t="n">
-        <v>11685.3</v>
+        <v>8387.200000000001</v>
       </c>
       <c r="G218" t="n">
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>323</v>
+        <v>837</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -15516,7 +15256,7 @@
         <v>0</v>
       </c>
       <c r="L218" t="n">
-        <v>323</v>
+        <v>837</v>
       </c>
     </row>
     <row r="219">
@@ -15530,19 +15270,19 @@
         <v>4</v>
       </c>
       <c r="D219" t="n">
-        <v>64.8</v>
+        <v>210.5</v>
       </c>
       <c r="E219" t="n">
-        <v>11750</v>
+        <v>8598</v>
       </c>
       <c r="F219" t="n">
-        <v>11750.1</v>
+        <v>8597.700000000001</v>
       </c>
       <c r="G219" t="n">
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>323</v>
+        <v>837</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -15554,7 +15294,7 @@
         <v>0</v>
       </c>
       <c r="L219" t="n">
-        <v>323</v>
+        <v>837</v>
       </c>
     </row>
     <row r="220">
@@ -15568,13 +15308,13 @@
         <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>64.8</v>
+        <v>210.5</v>
       </c>
       <c r="E220" t="n">
-        <v>11750</v>
+        <v>8598</v>
       </c>
       <c r="F220" t="n">
-        <v>11750.1</v>
+        <v>8597.700000000001</v>
       </c>
       <c r="G220" t="n">
         <v>0</v>
@@ -15606,19 +15346,19 @@
         <v>0</v>
       </c>
       <c r="D221" t="n">
-        <v>64.8</v>
+        <v>210.5</v>
       </c>
       <c r="E221" t="n">
-        <v>11750</v>
+        <v>8598</v>
       </c>
       <c r="F221" t="n">
-        <v>11750.1</v>
+        <v>8597.700000000001</v>
       </c>
       <c r="G221" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -15627,10 +15367,10 @@
         <v>0</v>
       </c>
       <c r="K221" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="222">
@@ -15638,25 +15378,25 @@
         <v>74</v>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C222" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D222" t="n">
-        <v>16.2</v>
+        <v>64.8</v>
       </c>
       <c r="E222" t="n">
-        <v>11766</v>
+        <v>8663</v>
       </c>
       <c r="F222" t="n">
-        <v>11766.3</v>
+        <v>8662.5</v>
       </c>
       <c r="G222" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -15665,10 +15405,10 @@
         <v>0</v>
       </c>
       <c r="K222" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="223">
@@ -15682,13 +15422,13 @@
         <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>16.2</v>
+        <v>64.8</v>
       </c>
       <c r="E223" t="n">
-        <v>11766</v>
+        <v>8663</v>
       </c>
       <c r="F223" t="n">
-        <v>11766.3</v>
+        <v>8662.5</v>
       </c>
       <c r="G223" t="n">
         <v>0</v>
@@ -15720,19 +15460,19 @@
         <v>0</v>
       </c>
       <c r="D224" t="n">
-        <v>16.2</v>
+        <v>64.8</v>
       </c>
       <c r="E224" t="n">
-        <v>11766</v>
+        <v>8663</v>
       </c>
       <c r="F224" t="n">
-        <v>11766.3</v>
+        <v>8662.5</v>
       </c>
       <c r="G224" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>842</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -15741,10 +15481,10 @@
         <v>0</v>
       </c>
       <c r="K224" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="L224" t="n">
-        <v>0</v>
+        <v>842</v>
       </c>
     </row>
     <row r="225">
@@ -15752,25 +15492,25 @@
         <v>75</v>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C225" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D225" t="n">
-        <v>356.2</v>
+        <v>561.8</v>
       </c>
       <c r="E225" t="n">
-        <v>12122</v>
+        <v>9224</v>
       </c>
       <c r="F225" t="n">
-        <v>12122.5</v>
+        <v>9224.299999999999</v>
       </c>
       <c r="G225" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>842</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -15779,10 +15519,10 @@
         <v>0</v>
       </c>
       <c r="K225" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
-        <v>0</v>
+        <v>842</v>
       </c>
     </row>
     <row r="226">
@@ -15796,13 +15536,13 @@
         <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>356.2</v>
+        <v>561.8</v>
       </c>
       <c r="E226" t="n">
-        <v>12122</v>
+        <v>9224</v>
       </c>
       <c r="F226" t="n">
-        <v>12122.5</v>
+        <v>9224.299999999999</v>
       </c>
       <c r="G226" t="n">
         <v>0</v>
@@ -15834,31 +15574,31 @@
         <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>356.2</v>
+        <v>561.8</v>
       </c>
       <c r="E227" t="n">
-        <v>12122</v>
+        <v>9224</v>
       </c>
       <c r="F227" t="n">
-        <v>12122.5</v>
+        <v>9224.299999999999</v>
       </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>842</v>
       </c>
       <c r="H227" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
       <c r="J227" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="K227" t="n">
         <v>0</v>
       </c>
       <c r="L227" t="n">
-        <v>0</v>
+        <v>842</v>
       </c>
     </row>
     <row r="228">
@@ -15866,37 +15606,37 @@
         <v>76</v>
       </c>
       <c r="B228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C228" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D228" t="n">
-        <v>388.6</v>
+        <v>194.3</v>
       </c>
       <c r="E228" t="n">
-        <v>12511</v>
+        <v>9419</v>
       </c>
       <c r="F228" t="n">
-        <v>12511.1</v>
+        <v>9418.6</v>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>842</v>
       </c>
       <c r="H228" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
       <c r="J228" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="K228" t="n">
         <v>0</v>
       </c>
       <c r="L228" t="n">
-        <v>0</v>
+        <v>842</v>
       </c>
     </row>
     <row r="229">
@@ -15910,13 +15650,13 @@
         <v>0</v>
       </c>
       <c r="D229" t="n">
-        <v>388.6</v>
+        <v>194.3</v>
       </c>
       <c r="E229" t="n">
-        <v>12511</v>
+        <v>9419</v>
       </c>
       <c r="F229" t="n">
-        <v>12511.1</v>
+        <v>9418.6</v>
       </c>
       <c r="G229" t="n">
         <v>0</v>
@@ -15948,19 +15688,19 @@
         <v>0</v>
       </c>
       <c r="D230" t="n">
-        <v>388.6</v>
+        <v>194.3</v>
       </c>
       <c r="E230" t="n">
-        <v>12511</v>
+        <v>9419</v>
       </c>
       <c r="F230" t="n">
-        <v>12511.1</v>
+        <v>9418.6</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>328</v>
+        <v>850</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -15972,7 +15712,7 @@
         <v>0</v>
       </c>
       <c r="L230" t="n">
-        <v>328</v>
+        <v>850</v>
       </c>
     </row>
     <row r="231">
@@ -15986,19 +15726,19 @@
         <v>4</v>
       </c>
       <c r="D231" t="n">
-        <v>81</v>
+        <v>453.4</v>
       </c>
       <c r="E231" t="n">
-        <v>12592</v>
+        <v>9872</v>
       </c>
       <c r="F231" t="n">
-        <v>12592.1</v>
+        <v>9872</v>
       </c>
       <c r="G231" t="n">
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>328</v>
+        <v>850</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -16010,7 +15750,7 @@
         <v>0</v>
       </c>
       <c r="L231" t="n">
-        <v>328</v>
+        <v>850</v>
       </c>
     </row>
     <row r="232">
@@ -16024,13 +15764,13 @@
         <v>0</v>
       </c>
       <c r="D232" t="n">
-        <v>81</v>
+        <v>453.4</v>
       </c>
       <c r="E232" t="n">
-        <v>12592</v>
+        <v>9872</v>
       </c>
       <c r="F232" t="n">
-        <v>12592.1</v>
+        <v>9872</v>
       </c>
       <c r="G232" t="n">
         <v>0</v>
@@ -16062,19 +15802,19 @@
         <v>0</v>
       </c>
       <c r="D233" t="n">
-        <v>81</v>
+        <v>453.4</v>
       </c>
       <c r="E233" t="n">
-        <v>12592</v>
+        <v>9872</v>
       </c>
       <c r="F233" t="n">
-        <v>12592.1</v>
+        <v>9872</v>
       </c>
       <c r="G233" t="n">
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>330</v>
+        <v>865</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -16086,7 +15826,7 @@
         <v>0</v>
       </c>
       <c r="L233" t="n">
-        <v>330</v>
+        <v>865</v>
       </c>
     </row>
     <row r="234">
@@ -16100,19 +15840,19 @@
         <v>4</v>
       </c>
       <c r="D234" t="n">
-        <v>64.8</v>
+        <v>81</v>
       </c>
       <c r="E234" t="n">
-        <v>12657</v>
+        <v>9953</v>
       </c>
       <c r="F234" t="n">
-        <v>12656.9</v>
+        <v>9953</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>330</v>
+        <v>865</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -16124,7 +15864,7 @@
         <v>0</v>
       </c>
       <c r="L234" t="n">
-        <v>330</v>
+        <v>865</v>
       </c>
     </row>
     <row r="235">
@@ -16138,13 +15878,13 @@
         <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>64.8</v>
+        <v>81</v>
       </c>
       <c r="E235" t="n">
-        <v>12657</v>
+        <v>9953</v>
       </c>
       <c r="F235" t="n">
-        <v>12656.9</v>
+        <v>9953</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -16176,19 +15916,19 @@
         <v>0</v>
       </c>
       <c r="D236" t="n">
-        <v>64.8</v>
+        <v>81</v>
       </c>
       <c r="E236" t="n">
-        <v>12657</v>
+        <v>9953</v>
       </c>
       <c r="F236" t="n">
-        <v>12656.9</v>
+        <v>9953</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>332</v>
+        <v>927</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -16200,7 +15940,7 @@
         <v>0</v>
       </c>
       <c r="L236" t="n">
-        <v>332</v>
+        <v>927</v>
       </c>
     </row>
     <row r="237">
@@ -16214,19 +15954,19 @@
         <v>4</v>
       </c>
       <c r="D237" t="n">
-        <v>81</v>
+        <v>647.7</v>
       </c>
       <c r="E237" t="n">
-        <v>12738</v>
+        <v>10601</v>
       </c>
       <c r="F237" t="n">
-        <v>12737.9</v>
+        <v>10600.7</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>332</v>
+        <v>927</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -16238,7 +15978,7 @@
         <v>0</v>
       </c>
       <c r="L237" t="n">
-        <v>332</v>
+        <v>927</v>
       </c>
     </row>
     <row r="238">
@@ -16252,13 +15992,13 @@
         <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>81</v>
+        <v>647.7</v>
       </c>
       <c r="E238" t="n">
-        <v>12738</v>
+        <v>10601</v>
       </c>
       <c r="F238" t="n">
-        <v>12737.9</v>
+        <v>10600.7</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
@@ -16290,19 +16030,19 @@
         <v>0</v>
       </c>
       <c r="D239" t="n">
-        <v>81</v>
+        <v>647.7</v>
       </c>
       <c r="E239" t="n">
-        <v>12738</v>
+        <v>10601</v>
       </c>
       <c r="F239" t="n">
-        <v>12737.9</v>
+        <v>10600.7</v>
       </c>
       <c r="G239" t="n">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -16311,10 +16051,10 @@
         <v>0</v>
       </c>
       <c r="K239" t="n">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="L239" t="n">
-        <v>0</v>
+        <v>934</v>
       </c>
     </row>
     <row r="240">
@@ -16322,25 +16062,25 @@
         <v>80</v>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C240" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D240" t="n">
-        <v>259.1</v>
+        <v>81</v>
       </c>
       <c r="E240" t="n">
-        <v>12997</v>
+        <v>10682</v>
       </c>
       <c r="F240" t="n">
-        <v>12997</v>
+        <v>10681.7</v>
       </c>
       <c r="G240" t="n">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -16349,10 +16089,10 @@
         <v>0</v>
       </c>
       <c r="K240" t="n">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="L240" t="n">
-        <v>0</v>
+        <v>934</v>
       </c>
     </row>
     <row r="241">
@@ -16366,13 +16106,13 @@
         <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>259.1</v>
+        <v>81</v>
       </c>
       <c r="E241" t="n">
-        <v>12997</v>
+        <v>10682</v>
       </c>
       <c r="F241" t="n">
-        <v>12997</v>
+        <v>10681.7</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
@@ -16404,19 +16144,19 @@
         <v>0</v>
       </c>
       <c r="D242" t="n">
-        <v>259.1</v>
+        <v>81</v>
       </c>
       <c r="E242" t="n">
-        <v>12997</v>
+        <v>10682</v>
       </c>
       <c r="F242" t="n">
-        <v>12997</v>
+        <v>10681.7</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>332</v>
+        <v>935</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -16428,7 +16168,7 @@
         <v>0</v>
       </c>
       <c r="L242" t="n">
-        <v>332</v>
+        <v>935</v>
       </c>
     </row>
     <row r="243">
@@ -16442,19 +16182,19 @@
         <v>4</v>
       </c>
       <c r="D243" t="n">
-        <v>48.6</v>
+        <v>1457.2</v>
       </c>
       <c r="E243" t="n">
-        <v>13046</v>
+        <v>12139</v>
       </c>
       <c r="F243" t="n">
-        <v>13045.6</v>
+        <v>12138.9</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>332</v>
+        <v>935</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -16466,7 +16206,7 @@
         <v>0</v>
       </c>
       <c r="L243" t="n">
-        <v>332</v>
+        <v>935</v>
       </c>
     </row>
     <row r="244">
@@ -16480,13 +16220,13 @@
         <v>0</v>
       </c>
       <c r="D244" t="n">
-        <v>48.6</v>
+        <v>1457.2</v>
       </c>
       <c r="E244" t="n">
-        <v>13046</v>
+        <v>12139</v>
       </c>
       <c r="F244" t="n">
-        <v>13045.6</v>
+        <v>12138.9</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
@@ -16518,19 +16258,19 @@
         <v>0</v>
       </c>
       <c r="D245" t="n">
-        <v>48.6</v>
+        <v>1457.2</v>
       </c>
       <c r="E245" t="n">
-        <v>13046</v>
+        <v>12139</v>
       </c>
       <c r="F245" t="n">
-        <v>13045.6</v>
+        <v>12138.9</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>333</v>
+        <v>977</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -16542,7 +16282,7 @@
         <v>0</v>
       </c>
       <c r="L245" t="n">
-        <v>333</v>
+        <v>977</v>
       </c>
     </row>
     <row r="246">
@@ -16556,19 +16296,19 @@
         <v>4</v>
       </c>
       <c r="D246" t="n">
-        <v>129.5</v>
+        <v>64.8</v>
       </c>
       <c r="E246" t="n">
-        <v>13175</v>
+        <v>12204</v>
       </c>
       <c r="F246" t="n">
-        <v>13175.1</v>
+        <v>12203.7</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>333</v>
+        <v>977</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -16580,7 +16320,7 @@
         <v>0</v>
       </c>
       <c r="L246" t="n">
-        <v>333</v>
+        <v>977</v>
       </c>
     </row>
     <row r="247">
@@ -16594,13 +16334,13 @@
         <v>0</v>
       </c>
       <c r="D247" t="n">
-        <v>129.5</v>
+        <v>64.8</v>
       </c>
       <c r="E247" t="n">
-        <v>13175</v>
+        <v>12204</v>
       </c>
       <c r="F247" t="n">
-        <v>13175.1</v>
+        <v>12203.7</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
@@ -16632,19 +16372,19 @@
         <v>0</v>
       </c>
       <c r="D248" t="n">
-        <v>129.5</v>
+        <v>64.8</v>
       </c>
       <c r="E248" t="n">
-        <v>13175</v>
+        <v>12204</v>
       </c>
       <c r="F248" t="n">
-        <v>13175.1</v>
+        <v>12203.7</v>
       </c>
       <c r="G248" t="n">
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>334</v>
+        <v>980</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -16656,7 +16396,7 @@
         <v>0</v>
       </c>
       <c r="L248" t="n">
-        <v>334</v>
+        <v>980</v>
       </c>
     </row>
     <row r="249">
@@ -16670,19 +16410,19 @@
         <v>4</v>
       </c>
       <c r="D249" t="n">
-        <v>210.5</v>
+        <v>81</v>
       </c>
       <c r="E249" t="n">
-        <v>13386</v>
+        <v>12285</v>
       </c>
       <c r="F249" t="n">
-        <v>13385.6</v>
+        <v>12284.7</v>
       </c>
       <c r="G249" t="n">
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>334</v>
+        <v>980</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -16694,7 +16434,7 @@
         <v>0</v>
       </c>
       <c r="L249" t="n">
-        <v>334</v>
+        <v>980</v>
       </c>
     </row>
     <row r="250">
@@ -16708,13 +16448,13 @@
         <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>210.5</v>
+        <v>81</v>
       </c>
       <c r="E250" t="n">
-        <v>13386</v>
+        <v>12285</v>
       </c>
       <c r="F250" t="n">
-        <v>13385.6</v>
+        <v>12284.7</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
@@ -16746,19 +16486,19 @@
         <v>0</v>
       </c>
       <c r="D251" t="n">
-        <v>210.5</v>
+        <v>81</v>
       </c>
       <c r="E251" t="n">
-        <v>13386</v>
+        <v>12285</v>
       </c>
       <c r="F251" t="n">
-        <v>13385.6</v>
+        <v>12284.7</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>335</v>
+        <v>999</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -16770,7 +16510,7 @@
         <v>0</v>
       </c>
       <c r="L251" t="n">
-        <v>335</v>
+        <v>999</v>
       </c>
     </row>
     <row r="252">
@@ -16784,19 +16524,19 @@
         <v>4</v>
       </c>
       <c r="D252" t="n">
-        <v>129.5</v>
+        <v>161.9</v>
       </c>
       <c r="E252" t="n">
-        <v>13515</v>
+        <v>12447</v>
       </c>
       <c r="F252" t="n">
-        <v>13515.1</v>
+        <v>12446.6</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>335</v>
+        <v>999</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -16808,7 +16548,7 @@
         <v>0</v>
       </c>
       <c r="L252" t="n">
-        <v>335</v>
+        <v>999</v>
       </c>
     </row>
     <row r="253">
@@ -16822,13 +16562,13 @@
         <v>0</v>
       </c>
       <c r="D253" t="n">
-        <v>129.5</v>
+        <v>161.9</v>
       </c>
       <c r="E253" t="n">
-        <v>13515</v>
+        <v>12447</v>
       </c>
       <c r="F253" t="n">
-        <v>13515.1</v>
+        <v>12446.6</v>
       </c>
       <c r="G253" t="n">
         <v>0</v>
@@ -16860,19 +16600,19 @@
         <v>0</v>
       </c>
       <c r="D254" t="n">
-        <v>129.5</v>
+        <v>161.9</v>
       </c>
       <c r="E254" t="n">
-        <v>13515</v>
+        <v>12447</v>
       </c>
       <c r="F254" t="n">
-        <v>13515.1</v>
+        <v>12446.6</v>
       </c>
       <c r="G254" t="n">
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>335</v>
+        <v>1107</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -16884,7 +16624,7 @@
         <v>0</v>
       </c>
       <c r="L254" t="n">
-        <v>335</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="255">
@@ -16898,19 +16638,19 @@
         <v>4</v>
       </c>
       <c r="D255" t="n">
-        <v>161.9</v>
+        <v>113.3</v>
       </c>
       <c r="E255" t="n">
-        <v>13677</v>
+        <v>12560</v>
       </c>
       <c r="F255" t="n">
-        <v>13677</v>
+        <v>12559.9</v>
       </c>
       <c r="G255" t="n">
         <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>335</v>
+        <v>1107</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -16922,7 +16662,7 @@
         <v>0</v>
       </c>
       <c r="L255" t="n">
-        <v>335</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="256">
@@ -16936,13 +16676,13 @@
         <v>0</v>
       </c>
       <c r="D256" t="n">
-        <v>161.9</v>
+        <v>113.3</v>
       </c>
       <c r="E256" t="n">
-        <v>13677</v>
+        <v>12560</v>
       </c>
       <c r="F256" t="n">
-        <v>13677</v>
+        <v>12559.9</v>
       </c>
       <c r="G256" t="n">
         <v>0</v>
@@ -16974,19 +16714,19 @@
         <v>0</v>
       </c>
       <c r="D257" t="n">
-        <v>161.9</v>
+        <v>113.3</v>
       </c>
       <c r="E257" t="n">
-        <v>13677</v>
+        <v>12560</v>
       </c>
       <c r="F257" t="n">
-        <v>13677</v>
+        <v>12559.9</v>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>1113</v>
       </c>
       <c r="H257" t="n">
-        <v>339</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -16998,7 +16738,7 @@
         <v>0</v>
       </c>
       <c r="L257" t="n">
-        <v>339</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="258">
@@ -17006,25 +16746,25 @@
         <v>86</v>
       </c>
       <c r="B258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C258" t="n">
         <v>4</v>
       </c>
       <c r="D258" t="n">
-        <v>32.4</v>
+        <v>259.1</v>
       </c>
       <c r="E258" t="n">
-        <v>13709</v>
+        <v>12819</v>
       </c>
       <c r="F258" t="n">
-        <v>13709.4</v>
+        <v>12819</v>
       </c>
       <c r="G258" t="n">
-        <v>0</v>
+        <v>1113</v>
       </c>
       <c r="H258" t="n">
-        <v>339</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -17036,7 +16776,7 @@
         <v>0</v>
       </c>
       <c r="L258" t="n">
-        <v>339</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="259">
@@ -17050,13 +16790,13 @@
         <v>0</v>
       </c>
       <c r="D259" t="n">
-        <v>32.4</v>
+        <v>259.1</v>
       </c>
       <c r="E259" t="n">
-        <v>13709</v>
+        <v>12819</v>
       </c>
       <c r="F259" t="n">
-        <v>13709.4</v>
+        <v>12819</v>
       </c>
       <c r="G259" t="n">
         <v>0</v>
@@ -17088,16 +16828,16 @@
         <v>0</v>
       </c>
       <c r="D260" t="n">
-        <v>32.4</v>
+        <v>259.1</v>
       </c>
       <c r="E260" t="n">
-        <v>13709</v>
+        <v>12819</v>
       </c>
       <c r="F260" t="n">
-        <v>13709.4</v>
+        <v>12819</v>
       </c>
       <c r="G260" t="n">
-        <v>341</v>
+        <v>1122</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -17109,10 +16849,10 @@
         <v>0</v>
       </c>
       <c r="K260" t="n">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="L260" t="n">
-        <v>0</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="261">
@@ -17123,19 +16863,19 @@
         <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D261" t="n">
-        <v>48.6</v>
+        <v>16.2</v>
       </c>
       <c r="E261" t="n">
-        <v>13758</v>
+        <v>12835</v>
       </c>
       <c r="F261" t="n">
-        <v>13758</v>
+        <v>12835.2</v>
       </c>
       <c r="G261" t="n">
-        <v>341</v>
+        <v>1122</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -17147,10 +16887,10 @@
         <v>0</v>
       </c>
       <c r="K261" t="n">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
-        <v>0</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="262">
@@ -17164,13 +16904,13 @@
         <v>0</v>
       </c>
       <c r="D262" t="n">
-        <v>48.6</v>
+        <v>16.2</v>
       </c>
       <c r="E262" t="n">
-        <v>13758</v>
+        <v>12835</v>
       </c>
       <c r="F262" t="n">
-        <v>13758</v>
+        <v>12835.2</v>
       </c>
       <c r="G262" t="n">
         <v>0</v>
@@ -17202,16 +16942,16 @@
         <v>0</v>
       </c>
       <c r="D263" t="n">
-        <v>48.6</v>
+        <v>16.2</v>
       </c>
       <c r="E263" t="n">
-        <v>13758</v>
+        <v>12835</v>
       </c>
       <c r="F263" t="n">
-        <v>13758</v>
+        <v>12835.2</v>
       </c>
       <c r="G263" t="n">
-        <v>341</v>
+        <v>1127</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -17223,10 +16963,10 @@
         <v>0</v>
       </c>
       <c r="K263" t="n">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="L263" t="n">
-        <v>0</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="264">
@@ -17237,19 +16977,19 @@
         <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D264" t="n">
-        <v>161.9</v>
+        <v>259.1</v>
       </c>
       <c r="E264" t="n">
-        <v>13920</v>
+        <v>13094</v>
       </c>
       <c r="F264" t="n">
-        <v>13919.9</v>
+        <v>13094.3</v>
       </c>
       <c r="G264" t="n">
-        <v>341</v>
+        <v>1127</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -17261,10 +17001,10 @@
         <v>0</v>
       </c>
       <c r="K264" t="n">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="L264" t="n">
-        <v>0</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="265">
@@ -17278,13 +17018,13 @@
         <v>0</v>
       </c>
       <c r="D265" t="n">
-        <v>161.9</v>
+        <v>259.1</v>
       </c>
       <c r="E265" t="n">
-        <v>13920</v>
+        <v>13094</v>
       </c>
       <c r="F265" t="n">
-        <v>13919.9</v>
+        <v>13094.3</v>
       </c>
       <c r="G265" t="n">
         <v>0</v>
@@ -17316,16 +17056,16 @@
         <v>0</v>
       </c>
       <c r="D266" t="n">
-        <v>161.9</v>
+        <v>259.1</v>
       </c>
       <c r="E266" t="n">
-        <v>13920</v>
+        <v>13094</v>
       </c>
       <c r="F266" t="n">
-        <v>13919.9</v>
+        <v>13094.3</v>
       </c>
       <c r="G266" t="n">
-        <v>350</v>
+        <v>1134</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -17337,10 +17077,10 @@
         <v>0</v>
       </c>
       <c r="K266" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
-        <v>0</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="267">
@@ -17351,19 +17091,19 @@
         <v>1</v>
       </c>
       <c r="C267" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D267" t="n">
-        <v>259.1</v>
+        <v>129.5</v>
       </c>
       <c r="E267" t="n">
-        <v>14179</v>
+        <v>13224</v>
       </c>
       <c r="F267" t="n">
-        <v>14179</v>
+        <v>13223.8</v>
       </c>
       <c r="G267" t="n">
-        <v>350</v>
+        <v>1134</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -17375,10 +17115,10 @@
         <v>0</v>
       </c>
       <c r="K267" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="L267" t="n">
-        <v>0</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="268">
@@ -17392,13 +17132,13 @@
         <v>0</v>
       </c>
       <c r="D268" t="n">
-        <v>259.1</v>
+        <v>129.5</v>
       </c>
       <c r="E268" t="n">
-        <v>14179</v>
+        <v>13224</v>
       </c>
       <c r="F268" t="n">
-        <v>14179</v>
+        <v>13223.8</v>
       </c>
       <c r="G268" t="n">
         <v>0</v>
@@ -17430,19 +17170,19 @@
         <v>0</v>
       </c>
       <c r="D269" t="n">
-        <v>259.1</v>
+        <v>129.5</v>
       </c>
       <c r="E269" t="n">
-        <v>14179</v>
+        <v>13224</v>
       </c>
       <c r="F269" t="n">
-        <v>14179</v>
+        <v>13223.8</v>
       </c>
       <c r="G269" t="n">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>1432</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -17451,10 +17191,10 @@
         <v>0</v>
       </c>
       <c r="K269" t="n">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
-        <v>0</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="270">
@@ -17462,25 +17202,25 @@
         <v>90</v>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C270" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D270" t="n">
-        <v>113.3</v>
+        <v>81</v>
       </c>
       <c r="E270" t="n">
-        <v>14292</v>
+        <v>13305</v>
       </c>
       <c r="F270" t="n">
-        <v>14292.3</v>
+        <v>13304.8</v>
       </c>
       <c r="G270" t="n">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>1432</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -17489,10 +17229,10 @@
         <v>0</v>
       </c>
       <c r="K270" t="n">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="L270" t="n">
-        <v>0</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="271">
@@ -17506,13 +17246,13 @@
         <v>0</v>
       </c>
       <c r="D271" t="n">
-        <v>113.3</v>
+        <v>81</v>
       </c>
       <c r="E271" t="n">
-        <v>14292</v>
+        <v>13305</v>
       </c>
       <c r="F271" t="n">
-        <v>14292.3</v>
+        <v>13304.8</v>
       </c>
       <c r="G271" t="n">
         <v>0</v>
@@ -17544,19 +17284,19 @@
         <v>0</v>
       </c>
       <c r="D272" t="n">
-        <v>113.3</v>
+        <v>81</v>
       </c>
       <c r="E272" t="n">
-        <v>14292</v>
+        <v>13305</v>
       </c>
       <c r="F272" t="n">
-        <v>14292.3</v>
+        <v>13304.8</v>
       </c>
       <c r="G272" t="n">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>3880</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -17568,7 +17308,7 @@
         <v>0</v>
       </c>
       <c r="L272" t="n">
-        <v>357</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="273">
@@ -17576,25 +17316,25 @@
         <v>91</v>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C273" t="n">
         <v>4</v>
       </c>
       <c r="D273" t="n">
-        <v>161.9</v>
+        <v>323.8</v>
       </c>
       <c r="E273" t="n">
-        <v>14454</v>
+        <v>13629</v>
       </c>
       <c r="F273" t="n">
-        <v>14454.2</v>
+        <v>13628.6</v>
       </c>
       <c r="G273" t="n">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>3880</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -17606,7 +17346,7 @@
         <v>0</v>
       </c>
       <c r="L273" t="n">
-        <v>357</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="274">
@@ -17620,13 +17360,13 @@
         <v>0</v>
       </c>
       <c r="D274" t="n">
-        <v>161.9</v>
+        <v>323.8</v>
       </c>
       <c r="E274" t="n">
-        <v>14454</v>
+        <v>13629</v>
       </c>
       <c r="F274" t="n">
-        <v>14454.2</v>
+        <v>13628.6</v>
       </c>
       <c r="G274" t="n">
         <v>0</v>
@@ -17658,19 +17398,19 @@
         <v>0</v>
       </c>
       <c r="D275" t="n">
-        <v>161.9</v>
+        <v>323.8</v>
       </c>
       <c r="E275" t="n">
-        <v>14454</v>
+        <v>13629</v>
       </c>
       <c r="F275" t="n">
-        <v>14454.2</v>
+        <v>13628.6</v>
       </c>
       <c r="G275" t="n">
         <v>0</v>
       </c>
       <c r="H275" t="n">
-        <v>358</v>
+        <v>4764</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -17682,7 +17422,7 @@
         <v>0</v>
       </c>
       <c r="L275" t="n">
-        <v>358</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="276">
@@ -17696,19 +17436,19 @@
         <v>4</v>
       </c>
       <c r="D276" t="n">
-        <v>32.4</v>
+        <v>323.8</v>
       </c>
       <c r="E276" t="n">
-        <v>14487</v>
+        <v>13952</v>
       </c>
       <c r="F276" t="n">
-        <v>14486.6</v>
+        <v>13952.4</v>
       </c>
       <c r="G276" t="n">
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>358</v>
+        <v>4764</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -17720,7 +17460,7 @@
         <v>0</v>
       </c>
       <c r="L276" t="n">
-        <v>358</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="277">
@@ -17734,13 +17474,13 @@
         <v>0</v>
       </c>
       <c r="D277" t="n">
-        <v>32.4</v>
+        <v>323.8</v>
       </c>
       <c r="E277" t="n">
-        <v>14487</v>
+        <v>13952</v>
       </c>
       <c r="F277" t="n">
-        <v>14486.6</v>
+        <v>13952.4</v>
       </c>
       <c r="G277" t="n">
         <v>0</v>
@@ -17772,19 +17512,19 @@
         <v>0</v>
       </c>
       <c r="D278" t="n">
-        <v>32.4</v>
+        <v>323.8</v>
       </c>
       <c r="E278" t="n">
-        <v>14487</v>
+        <v>13952</v>
       </c>
       <c r="F278" t="n">
-        <v>14486.6</v>
+        <v>13952.4</v>
       </c>
       <c r="G278" t="n">
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>360</v>
+        <v>5678</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -17796,7 +17536,7 @@
         <v>0</v>
       </c>
       <c r="L278" t="n">
-        <v>360</v>
+        <v>5678</v>
       </c>
     </row>
     <row r="279">
@@ -17810,19 +17550,19 @@
         <v>4</v>
       </c>
       <c r="D279" t="n">
-        <v>32.4</v>
+        <v>485.7</v>
       </c>
       <c r="E279" t="n">
-        <v>14519</v>
+        <v>14438</v>
       </c>
       <c r="F279" t="n">
-        <v>14519</v>
+        <v>14438.1</v>
       </c>
       <c r="G279" t="n">
         <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>360</v>
+        <v>5678</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -17834,7 +17574,7 @@
         <v>0</v>
       </c>
       <c r="L279" t="n">
-        <v>360</v>
+        <v>5678</v>
       </c>
     </row>
     <row r="280">
@@ -17848,13 +17588,13 @@
         <v>0</v>
       </c>
       <c r="D280" t="n">
-        <v>32.4</v>
+        <v>485.7</v>
       </c>
       <c r="E280" t="n">
-        <v>14519</v>
+        <v>14438</v>
       </c>
       <c r="F280" t="n">
-        <v>14519</v>
+        <v>14438.1</v>
       </c>
       <c r="G280" t="n">
         <v>0</v>
@@ -17886,19 +17626,19 @@
         <v>0</v>
       </c>
       <c r="D281" t="n">
-        <v>32.4</v>
+        <v>485.7</v>
       </c>
       <c r="E281" t="n">
-        <v>14519</v>
+        <v>14438</v>
       </c>
       <c r="F281" t="n">
-        <v>14519</v>
+        <v>14438.1</v>
       </c>
       <c r="G281" t="n">
         <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>362</v>
+        <v>5693</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -17910,7 +17650,7 @@
         <v>0</v>
       </c>
       <c r="L281" t="n">
-        <v>362</v>
+        <v>5693</v>
       </c>
     </row>
     <row r="282">
@@ -17924,7 +17664,7 @@
         <v>4</v>
       </c>
       <c r="D282" t="n">
-        <v>81</v>
+        <v>161.9</v>
       </c>
       <c r="E282" t="n">
         <v>14600</v>
@@ -17936,7 +17676,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="n">
-        <v>362</v>
+        <v>5693</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -17948,7 +17688,7 @@
         <v>0</v>
       </c>
       <c r="L282" t="n">
-        <v>362</v>
+        <v>5693</v>
       </c>
     </row>
     <row r="283">
@@ -17962,7 +17702,7 @@
         <v>0</v>
       </c>
       <c r="D283" t="n">
-        <v>81</v>
+        <v>161.9</v>
       </c>
       <c r="E283" t="n">
         <v>14600</v>
@@ -18000,7 +17740,7 @@
         <v>0</v>
       </c>
       <c r="D284" t="n">
-        <v>81</v>
+        <v>161.9</v>
       </c>
       <c r="E284" t="n">
         <v>14600</v>
@@ -18035,9 +17775,15 @@
       <c r="C285" t="n">
         <v>4</v>
       </c>
-      <c r="D285" t="inlineStr"/>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
+      <c r="D285" t="n">
+        <v>0</v>
+      </c>
+      <c r="E285" t="n">
+        <v>14600</v>
+      </c>
+      <c r="F285" t="n">
+        <v>14600</v>
+      </c>
       <c r="G285" t="n">
         <v>0</v>
       </c>
@@ -18067,9 +17813,15 @@
       <c r="C286" t="n">
         <v>0</v>
       </c>
-      <c r="D286" t="inlineStr"/>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
+      <c r="D286" t="n">
+        <v>0</v>
+      </c>
+      <c r="E286" t="n">
+        <v>14600</v>
+      </c>
+      <c r="F286" t="n">
+        <v>14600</v>
+      </c>
       <c r="G286" t="n">
         <v>0</v>
       </c>
@@ -18099,9 +17851,15 @@
       <c r="C287" t="n">
         <v>0</v>
       </c>
-      <c r="D287" t="inlineStr"/>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
+      <c r="D287" t="n">
+        <v>0</v>
+      </c>
+      <c r="E287" t="n">
+        <v>14600</v>
+      </c>
+      <c r="F287" t="n">
+        <v>14600</v>
+      </c>
       <c r="G287" t="n">
         <v>0</v>
       </c>
@@ -18129,9 +17887,15 @@
       <c r="C288" t="n">
         <v>4</v>
       </c>
-      <c r="D288" t="inlineStr"/>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
+      <c r="D288" t="n">
+        <v>0</v>
+      </c>
+      <c r="E288" t="n">
+        <v>14600</v>
+      </c>
+      <c r="F288" t="n">
+        <v>14600</v>
+      </c>
       <c r="G288" t="n">
         <v>0</v>
       </c>
@@ -18161,9 +17925,15 @@
       <c r="C289" t="n">
         <v>0</v>
       </c>
-      <c r="D289" t="inlineStr"/>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
+      <c r="D289" t="n">
+        <v>0</v>
+      </c>
+      <c r="E289" t="n">
+        <v>14600</v>
+      </c>
+      <c r="F289" t="n">
+        <v>14600</v>
+      </c>
       <c r="G289" t="n">
         <v>0</v>
       </c>
@@ -18193,9 +17963,15 @@
       <c r="C290" t="n">
         <v>0</v>
       </c>
-      <c r="D290" t="inlineStr"/>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
+      <c r="D290" t="n">
+        <v>0</v>
+      </c>
+      <c r="E290" t="n">
+        <v>14600</v>
+      </c>
+      <c r="F290" t="n">
+        <v>14600</v>
+      </c>
       <c r="G290" t="n">
         <v>0</v>
       </c>
@@ -18223,9 +17999,15 @@
       <c r="C291" t="n">
         <v>4</v>
       </c>
-      <c r="D291" t="inlineStr"/>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
+      <c r="D291" t="n">
+        <v>0</v>
+      </c>
+      <c r="E291" t="n">
+        <v>14600</v>
+      </c>
+      <c r="F291" t="n">
+        <v>14600</v>
+      </c>
       <c r="G291" t="n">
         <v>0</v>
       </c>
@@ -18255,9 +18037,15 @@
       <c r="C292" t="n">
         <v>0</v>
       </c>
-      <c r="D292" t="inlineStr"/>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
+      <c r="D292" t="n">
+        <v>0</v>
+      </c>
+      <c r="E292" t="n">
+        <v>14600</v>
+      </c>
+      <c r="F292" t="n">
+        <v>14600</v>
+      </c>
       <c r="G292" t="n">
         <v>0</v>
       </c>
@@ -18287,9 +18075,15 @@
       <c r="C293" t="n">
         <v>0</v>
       </c>
-      <c r="D293" t="inlineStr"/>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
+      <c r="D293" t="n">
+        <v>0</v>
+      </c>
+      <c r="E293" t="n">
+        <v>14600</v>
+      </c>
+      <c r="F293" t="n">
+        <v>14600</v>
+      </c>
       <c r="G293" t="n">
         <v>0</v>
       </c>
@@ -18317,9 +18111,15 @@
       <c r="C294" t="n">
         <v>4</v>
       </c>
-      <c r="D294" t="inlineStr"/>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
+      <c r="E294" t="n">
+        <v>14600</v>
+      </c>
+      <c r="F294" t="n">
+        <v>14600</v>
+      </c>
       <c r="G294" t="n">
         <v>0</v>
       </c>
@@ -18349,9 +18149,15 @@
       <c r="C295" t="n">
         <v>0</v>
       </c>
-      <c r="D295" t="inlineStr"/>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" t="n">
+        <v>14600</v>
+      </c>
+      <c r="F295" t="n">
+        <v>14600</v>
+      </c>
       <c r="G295" t="n">
         <v>0</v>
       </c>
@@ -18381,9 +18187,15 @@
       <c r="C296" t="n">
         <v>0</v>
       </c>
-      <c r="D296" t="inlineStr"/>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
+      <c r="D296" t="n">
+        <v>0</v>
+      </c>
+      <c r="E296" t="n">
+        <v>14600</v>
+      </c>
+      <c r="F296" t="n">
+        <v>14600</v>
+      </c>
       <c r="G296" t="n">
         <v>0</v>
       </c>
@@ -18411,9 +18223,15 @@
       <c r="C297" t="n">
         <v>4</v>
       </c>
-      <c r="D297" t="inlineStr"/>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
+      <c r="D297" t="n">
+        <v>0</v>
+      </c>
+      <c r="E297" t="n">
+        <v>14600</v>
+      </c>
+      <c r="F297" t="n">
+        <v>14600</v>
+      </c>
       <c r="G297" t="n">
         <v>0</v>
       </c>
@@ -18443,9 +18261,15 @@
       <c r="C298" t="n">
         <v>0</v>
       </c>
-      <c r="D298" t="inlineStr"/>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
+      <c r="D298" t="n">
+        <v>0</v>
+      </c>
+      <c r="E298" t="n">
+        <v>14600</v>
+      </c>
+      <c r="F298" t="n">
+        <v>14600</v>
+      </c>
       <c r="G298" t="n">
         <v>0</v>
       </c>
@@ -18475,9 +18299,15 @@
       <c r="C299" t="n">
         <v>0</v>
       </c>
-      <c r="D299" t="inlineStr"/>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
+      <c r="D299" t="n">
+        <v>0</v>
+      </c>
+      <c r="E299" t="n">
+        <v>14600</v>
+      </c>
+      <c r="F299" t="n">
+        <v>14600</v>
+      </c>
       <c r="G299" t="n">
         <v>0</v>
       </c>
@@ -18505,9 +18335,15 @@
       <c r="C300" t="n">
         <v>4</v>
       </c>
-      <c r="D300" t="inlineStr"/>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
+      <c r="D300" t="n">
+        <v>0</v>
+      </c>
+      <c r="E300" t="n">
+        <v>14600</v>
+      </c>
+      <c r="F300" t="n">
+        <v>14600</v>
+      </c>
       <c r="G300" t="n">
         <v>0</v>
       </c>
@@ -18537,9 +18373,15 @@
       <c r="C301" t="n">
         <v>0</v>
       </c>
-      <c r="D301" t="inlineStr"/>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
+      <c r="D301" t="n">
+        <v>0</v>
+      </c>
+      <c r="E301" t="n">
+        <v>14600</v>
+      </c>
+      <c r="F301" t="n">
+        <v>14600</v>
+      </c>
       <c r="G301" t="n">
         <v>0</v>
       </c>
@@ -18569,9 +18411,15 @@
       <c r="C302" t="n">
         <v>0</v>
       </c>
-      <c r="D302" t="inlineStr"/>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
+      <c r="D302" t="n">
+        <v>0</v>
+      </c>
+      <c r="E302" t="n">
+        <v>14600</v>
+      </c>
+      <c r="F302" t="n">
+        <v>14600</v>
+      </c>
       <c r="G302" t="n">
         <v>0</v>
       </c>
